--- a/Data Structures/linked_list/Singly Linked Buffer/MPMC_ALT.xlsx
+++ b/Data Structures/linked_list/Singly Linked Buffer/MPMC_ALT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="99">
   <si>
     <t xml:space="preserve"> Lockless Linked List Key Range 131072 (2^17)</t>
   </si>
@@ -283,6 +283,39 @@
   </si>
   <si>
     <t>Cube 128 Lockless</t>
+  </si>
+  <si>
+    <t>Stoker (32 Core) TASNP</t>
+  </si>
+  <si>
+    <t>Stoker TASNP</t>
+  </si>
+  <si>
+    <t>Pthread Mutex</t>
+  </si>
+  <si>
+    <t>Compare-and-swap</t>
+  </si>
+  <si>
+    <t>Test-and-set</t>
+  </si>
+  <si>
+    <t>Test-and-test-and-set</t>
+  </si>
+  <si>
+    <t>Cycles</t>
+  </si>
+  <si>
+    <t>Cache References</t>
+  </si>
+  <si>
+    <t>Cache Misses</t>
+  </si>
+  <si>
+    <t>Stalled Frontend Cycles</t>
+  </si>
+  <si>
+    <t>Lockless</t>
   </si>
 </sst>
 </file>
@@ -329,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -344,6 +377,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1405,11 +1440,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93725440"/>
-        <c:axId val="93727360"/>
+        <c:axId val="100012800"/>
+        <c:axId val="100014720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93725440"/>
+        <c:axId val="100012800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,7 +1473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93727360"/>
+        <c:crossAx val="100014720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1446,7 +1481,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93727360"/>
+        <c:axId val="100014720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1511,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93725440"/>
+        <c:crossAx val="100012800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1724,11 +1759,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39561472"/>
-        <c:axId val="39567744"/>
+        <c:axId val="100057088"/>
+        <c:axId val="100059008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39561472"/>
+        <c:axId val="100057088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,7 +1792,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39567744"/>
+        <c:crossAx val="100059008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1765,7 +1800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39567744"/>
+        <c:axId val="100059008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,7 +1830,891 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39561472"/>
+        <c:crossAx val="100057088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Singly Linked Buffer;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stoker; Best Performing Locks;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$16:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6109979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6003794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5753914</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4152627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1452238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1436272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1206261</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1214998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) CAS lock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$17:$Y$17</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6006727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6013943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4368538</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4437876</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5997921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2985472</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3082779</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3150207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$19:$Y$19</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6013591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8758255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4284720</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8826226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4317215</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4381121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4448454</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6091243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$20:$Y$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4985510</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4967422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3998237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4061422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4100502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4119303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6174103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4358686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="49769856"/>
+        <c:axId val="49800704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="49769856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49800704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49800704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49769856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Singly Linked Buffer;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stoker; Best Performing Locks;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AD$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AE$15:$AL$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$16:$AL$16</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6109979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6003794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5753914</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4152627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1452238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1436272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1206261</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1214998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AD$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AE$15:$AL$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$18:$AL$18</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6013591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8758255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4284720</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8826226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4317215</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4381121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4448454</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6091243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AD$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker 128 Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AE$15:$AL$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$20:$AL$20</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6157503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5291860</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5013554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3595375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2736400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2624770</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2868725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1490187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="49408256"/>
+        <c:axId val="49410432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="49408256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49410432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49410432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49408256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1827,10 +2746,10 @@
       <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1857,10 +2776,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>4764</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1876,6 +2795,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2171,10 +3154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:O409"/>
+  <dimension ref="A6:AL409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="Q7" workbookViewId="0">
+      <selection activeCell="AD41" sqref="AD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2185,9 +3168,12 @@
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" customWidth="1"/>
+    <col min="30" max="30" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2197,7 +3183,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>47</v>
       </c>
@@ -2210,7 +3196,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1</v>
       </c>
@@ -2236,7 +3222,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2265,7 +3251,7 @@
         <v>1031046</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -2294,7 +3280,7 @@
         <v>4487703</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -2323,7 +3309,7 @@
         <v>666084</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -2352,7 +3338,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2381,8 +3367,56 @@
         <v>7346657</v>
       </c>
       <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="U15">
+        <v>8</v>
+      </c>
+      <c r="V15">
+        <v>16</v>
+      </c>
+      <c r="W15">
+        <v>32</v>
+      </c>
+      <c r="X15">
+        <v>64</v>
+      </c>
+      <c r="Y15">
+        <v>128</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>2</v>
+      </c>
+      <c r="AG15">
+        <v>4</v>
+      </c>
+      <c r="AH15">
+        <v>8</v>
+      </c>
+      <c r="AI15">
+        <v>16</v>
+      </c>
+      <c r="AJ15">
+        <v>32</v>
+      </c>
+      <c r="AK15">
+        <v>64</v>
+      </c>
+      <c r="AL15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -2410,8 +3444,62 @@
       <c r="I16" s="6">
         <v>29313</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>49</v>
+      </c>
+      <c r="R16" s="6">
+        <v>6109979</v>
+      </c>
+      <c r="S16" s="6">
+        <v>6003794</v>
+      </c>
+      <c r="T16" s="6">
+        <v>5753914</v>
+      </c>
+      <c r="U16" s="6">
+        <v>4152627</v>
+      </c>
+      <c r="V16" s="6">
+        <v>1452238</v>
+      </c>
+      <c r="W16" s="6">
+        <v>1436272</v>
+      </c>
+      <c r="X16" s="6">
+        <v>1206261</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>1214998</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>6109979</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>6003794</v>
+      </c>
+      <c r="AG16" s="6">
+        <v>5753914</v>
+      </c>
+      <c r="AH16" s="6">
+        <v>4152627</v>
+      </c>
+      <c r="AI16" s="6">
+        <v>1452238</v>
+      </c>
+      <c r="AJ16" s="6">
+        <v>1436272</v>
+      </c>
+      <c r="AK16" s="6">
+        <v>1206261</v>
+      </c>
+      <c r="AL16" s="6">
+        <v>1214998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -2439,8 +3527,62 @@
       <c r="I17" s="6">
         <v>240599</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>48</v>
+      </c>
+      <c r="R17" s="6">
+        <v>6006727</v>
+      </c>
+      <c r="S17" s="6">
+        <v>6013943</v>
+      </c>
+      <c r="T17" s="6">
+        <v>4368538</v>
+      </c>
+      <c r="U17" s="6">
+        <v>4437876</v>
+      </c>
+      <c r="V17" s="6">
+        <v>5997921</v>
+      </c>
+      <c r="W17" s="6">
+        <v>2985472</v>
+      </c>
+      <c r="X17" s="6">
+        <v>3082779</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>3150207</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>6006727</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>6013943</v>
+      </c>
+      <c r="AG17" s="6">
+        <v>4368538</v>
+      </c>
+      <c r="AH17" s="6">
+        <v>4437876</v>
+      </c>
+      <c r="AI17" s="6">
+        <v>5997921</v>
+      </c>
+      <c r="AJ17" s="6">
+        <v>2985472</v>
+      </c>
+      <c r="AK17" s="6">
+        <v>3082779</v>
+      </c>
+      <c r="AL17" s="6">
+        <v>3150207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -2468,8 +3610,62 @@
       <c r="I18" s="6">
         <v>4435702</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>88</v>
+      </c>
+      <c r="R18" s="6">
+        <v>6011266</v>
+      </c>
+      <c r="S18" s="6">
+        <v>3506907</v>
+      </c>
+      <c r="T18" s="6">
+        <v>358469</v>
+      </c>
+      <c r="U18" s="6">
+        <v>230438</v>
+      </c>
+      <c r="V18" s="6">
+        <v>120121</v>
+      </c>
+      <c r="W18" s="6">
+        <v>59594</v>
+      </c>
+      <c r="X18" s="6">
+        <v>53271</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>28299</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE18" s="6">
+        <v>6013591</v>
+      </c>
+      <c r="AF18" s="6">
+        <v>8758255</v>
+      </c>
+      <c r="AG18" s="6">
+        <v>4284720</v>
+      </c>
+      <c r="AH18" s="6">
+        <v>8826226</v>
+      </c>
+      <c r="AI18" s="6">
+        <v>4317215</v>
+      </c>
+      <c r="AJ18" s="6">
+        <v>4381121</v>
+      </c>
+      <c r="AK18" s="6">
+        <v>4448454</v>
+      </c>
+      <c r="AL18" s="6">
+        <v>6091243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -2497,8 +3693,62 @@
       <c r="I19" s="6">
         <v>295064</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R19" s="6">
+        <v>6013591</v>
+      </c>
+      <c r="S19" s="6">
+        <v>8758255</v>
+      </c>
+      <c r="T19" s="6">
+        <v>4284720</v>
+      </c>
+      <c r="U19" s="6">
+        <v>8826226</v>
+      </c>
+      <c r="V19" s="6">
+        <v>4317215</v>
+      </c>
+      <c r="W19" s="6">
+        <v>4381121</v>
+      </c>
+      <c r="X19" s="6">
+        <v>4448454</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>6091243</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE19">
+        <v>4985510</v>
+      </c>
+      <c r="AF19">
+        <v>4967422</v>
+      </c>
+      <c r="AG19">
+        <v>3998237</v>
+      </c>
+      <c r="AH19">
+        <v>4061422</v>
+      </c>
+      <c r="AI19">
+        <v>4100502</v>
+      </c>
+      <c r="AJ19">
+        <v>4119303</v>
+      </c>
+      <c r="AK19">
+        <v>6174103</v>
+      </c>
+      <c r="AL19">
+        <v>4358686</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2526,8 +3776,62 @@
       <c r="I20" s="6">
         <v>657259</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>52</v>
+      </c>
+      <c r="R20">
+        <v>4985510</v>
+      </c>
+      <c r="S20">
+        <v>4967422</v>
+      </c>
+      <c r="T20">
+        <v>3998237</v>
+      </c>
+      <c r="U20">
+        <v>4061422</v>
+      </c>
+      <c r="V20">
+        <v>4100502</v>
+      </c>
+      <c r="W20">
+        <v>4119303</v>
+      </c>
+      <c r="X20">
+        <v>6174103</v>
+      </c>
+      <c r="Y20">
+        <v>4358686</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE20" s="7">
+        <v>6157503</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>5291860</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>5013554</v>
+      </c>
+      <c r="AH20" s="7">
+        <v>3595375</v>
+      </c>
+      <c r="AI20" s="7">
+        <v>2736400</v>
+      </c>
+      <c r="AJ20" s="7">
+        <v>2624770</v>
+      </c>
+      <c r="AK20" s="7">
+        <v>2868725</v>
+      </c>
+      <c r="AL20" s="7">
+        <v>1490187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -2556,7 +3860,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2585,7 +3889,7 @@
         <v>31279</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -2613,8 +3917,44 @@
       <c r="I23" s="6">
         <v>417348</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>84</v>
+      </c>
+      <c r="R23" s="10">
+        <v>2202585599063</v>
+      </c>
+      <c r="S23" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" t="s">
+        <v>18</v>
+      </c>
+      <c r="V23" s="10">
+        <v>91384491883</v>
+      </c>
+      <c r="W23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z23" s="10">
+        <v>85860186583</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE23" s="10">
+        <v>942322908666</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -2642,8 +3982,33 @@
       <c r="I24" s="6">
         <v>14115897</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R24" s="10">
+        <v>210887858402</v>
+      </c>
+      <c r="S24" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="10">
+        <v>82585421426</v>
+      </c>
+      <c r="W24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z24" s="10">
+        <v>82462774107</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="10">
+        <v>105109197665</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -2671,8 +4036,33 @@
       <c r="I25" s="6">
         <v>7360144</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R25" s="10">
+        <v>632178469</v>
+      </c>
+      <c r="S25" t="s">
+        <v>5</v>
+      </c>
+      <c r="V25" s="10">
+        <v>80172267</v>
+      </c>
+      <c r="W25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="10">
+        <v>91456490</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="10">
+        <v>699215767</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -2700,13 +4090,75 @@
       <c r="I26" s="6">
         <v>1113</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R26" s="10">
+        <v>292219852</v>
+      </c>
+      <c r="S26" t="s">
+        <v>6</v>
+      </c>
+      <c r="T26">
+        <v>44.434377859752225</v>
+      </c>
+      <c r="V26" s="10">
+        <v>71772629</v>
+      </c>
+      <c r="W26" t="s">
+        <v>6</v>
+      </c>
+      <c r="X26">
+        <v>91.31047094358334</v>
+      </c>
+      <c r="Z26" s="10">
+        <v>83326066</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB26">
+        <v>72.98154682712233</v>
+      </c>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="10">
+        <v>468130514</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG26">
+        <f>AE26/AE25*100</f>
+        <v>66.950794889612382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R27" s="10">
+        <v>70017259408</v>
+      </c>
+      <c r="S27" t="s">
+        <v>7</v>
+      </c>
+      <c r="V27" s="10">
+        <v>16536998769</v>
+      </c>
+      <c r="W27" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z27" s="10">
+        <v>16685113624</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE27" s="10">
+        <v>28620956466</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2734,8 +4186,45 @@
       <c r="I28" s="6">
         <v>3800070</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R28" s="10">
+        <v>79490726</v>
+      </c>
+      <c r="S28" t="s">
+        <v>8</v>
+      </c>
+      <c r="T28">
+        <v>8.4829484238065064E-2</v>
+      </c>
+      <c r="V28" s="10">
+        <v>9759767</v>
+      </c>
+      <c r="W28" t="s">
+        <v>8</v>
+      </c>
+      <c r="X28">
+        <v>2.6367329568261117E-2</v>
+      </c>
+      <c r="Z28" s="10">
+        <v>11109930</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB28">
+        <v>3.4478659030337672E-2</v>
+      </c>
+      <c r="AE28" s="10">
+        <v>95634737</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG28">
+        <f>AE28/AE27*100</f>
+        <v>0.33414235164924833</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -2763,8 +4252,32 @@
       <c r="I29" s="6">
         <v>4446192</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R29" s="10">
+        <v>146237642275</v>
+      </c>
+      <c r="S29" t="s">
+        <v>9</v>
+      </c>
+      <c r="V29" s="10">
+        <v>7492998529</v>
+      </c>
+      <c r="W29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z29" s="10">
+        <v>7506143790</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE29" s="10">
+        <v>70168743533</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -2792,8 +4305,32 @@
       <c r="I30" s="6">
         <v>2382859</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R30" s="10">
+        <v>1107224.669398</v>
+      </c>
+      <c r="S30" t="s">
+        <v>10</v>
+      </c>
+      <c r="V30" s="10">
+        <v>56886.674969</v>
+      </c>
+      <c r="W30" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z30" s="10">
+        <v>56981.005034000002</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE30" s="10">
+        <v>533364.89931200002</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -2821,8 +4358,32 @@
       <c r="I31" s="6">
         <v>4048673</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R31" s="10">
+        <v>1107211.2498389999</v>
+      </c>
+      <c r="S31" t="s">
+        <v>11</v>
+      </c>
+      <c r="V31" s="10">
+        <v>56886.886126999998</v>
+      </c>
+      <c r="W31" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z31" s="10">
+        <v>56981.141070999998</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE31" s="10">
+        <v>533357.16200600006</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -2850,8 +4411,45 @@
       <c r="I32" s="6">
         <v>7868681</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R32" s="10">
+        <v>2089119750384</v>
+      </c>
+      <c r="S32" t="s">
+        <v>15</v>
+      </c>
+      <c r="T32">
+        <v>93.917109487672334</v>
+      </c>
+      <c r="V32" s="10">
+        <v>56565317064</v>
+      </c>
+      <c r="W32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X32">
+        <v>59.559950503294154</v>
+      </c>
+      <c r="Z32" s="10">
+        <v>51308018271</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB32">
+        <v>69.624266612618086</v>
+      </c>
+      <c r="AE32" s="10">
+        <v>887677025500</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG32">
+        <f>AE32/AE23*100</f>
+        <v>94.200938694851487</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -2879,8 +4477,45 @@
       <c r="I33" s="6">
         <v>274279</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R33" s="10">
+        <v>1419933816951</v>
+      </c>
+      <c r="S33" t="s">
+        <v>16</v>
+      </c>
+      <c r="T33">
+        <v>63.468447074869474</v>
+      </c>
+      <c r="V33" s="10">
+        <v>44789627319</v>
+      </c>
+      <c r="W33" t="s">
+        <v>16</v>
+      </c>
+      <c r="X33">
+        <v>48.342952534878577</v>
+      </c>
+      <c r="Z33" s="10">
+        <v>41527600786</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB33">
+        <v>42.662589725996227</v>
+      </c>
+      <c r="AE33" s="10">
+        <v>653202788644</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG33">
+        <f>AE33/AE23*100</f>
+        <v>69.318360260253769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -2908,8 +4543,10 @@
       <c r="I34" s="6">
         <v>2949705</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R34" s="11"/>
+      <c r="V34" s="11"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -2937,8 +4574,26 @@
       <c r="I35" s="6">
         <v>3045309</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q35" t="s">
+        <v>89</v>
+      </c>
+      <c r="R35" s="10">
+        <v>2676043396360</v>
+      </c>
+      <c r="S35" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" t="s">
+        <v>26</v>
+      </c>
+      <c r="V35" s="10">
+        <v>87830712750</v>
+      </c>
+      <c r="W35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -2966,8 +4621,20 @@
       <c r="I36" s="6">
         <v>4296401</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R36" s="10">
+        <v>32081013529</v>
+      </c>
+      <c r="S36" t="s">
+        <v>4</v>
+      </c>
+      <c r="V36" s="10">
+        <v>85136250591</v>
+      </c>
+      <c r="W36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -2995,8 +4662,35 @@
       <c r="I37" s="6">
         <v>3944918</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R37" s="10">
+        <v>268424082</v>
+      </c>
+      <c r="S37" t="s">
+        <v>5</v>
+      </c>
+      <c r="V37" s="10">
+        <v>98977343</v>
+      </c>
+      <c r="W37" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -3024,8 +4718,44 @@
       <c r="I38" s="7">
         <v>292</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R38" s="10">
+        <v>243361994</v>
+      </c>
+      <c r="S38" t="s">
+        <v>6</v>
+      </c>
+      <c r="T38">
+        <v>44.434377859752225</v>
+      </c>
+      <c r="V38" s="10">
+        <v>89435389</v>
+      </c>
+      <c r="W38" t="s">
+        <v>6</v>
+      </c>
+      <c r="X38">
+        <v>44.434377859752225</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE38" s="10">
+        <v>2202585599063</v>
+      </c>
+      <c r="AF38" s="10">
+        <v>632178469</v>
+      </c>
+      <c r="AG38" s="10">
+        <v>292219852</v>
+      </c>
+      <c r="AH38" s="10">
+        <v>2089119750384</v>
+      </c>
+      <c r="AI38" s="10">
+        <v>1419933816951</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -3037,8 +4767,38 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R39" s="10">
+        <v>6904877989</v>
+      </c>
+      <c r="S39" t="s">
+        <v>7</v>
+      </c>
+      <c r="V39" s="10">
+        <v>17129009371</v>
+      </c>
+      <c r="W39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE39" s="10">
+        <v>91384491883</v>
+      </c>
+      <c r="AF39" s="10">
+        <v>80172267</v>
+      </c>
+      <c r="AG39" s="10">
+        <v>71772629</v>
+      </c>
+      <c r="AH39" s="10">
+        <v>56565317064</v>
+      </c>
+      <c r="AI39" s="10">
+        <v>44789627319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -3066,8 +4826,44 @@
       <c r="I40" s="6">
         <v>120227</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R40" s="10">
+        <v>21338098</v>
+      </c>
+      <c r="S40" t="s">
+        <v>8</v>
+      </c>
+      <c r="T40">
+        <v>8.4829484238065064E-2</v>
+      </c>
+      <c r="V40" s="10">
+        <v>4662643</v>
+      </c>
+      <c r="W40" t="s">
+        <v>8</v>
+      </c>
+      <c r="X40">
+        <v>8.4829484238065064E-2</v>
+      </c>
+      <c r="AD40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE40" s="10">
+        <v>942322908666</v>
+      </c>
+      <c r="AF40" s="10">
+        <v>699215767</v>
+      </c>
+      <c r="AG40" s="10">
+        <v>468130514</v>
+      </c>
+      <c r="AH40" s="10">
+        <v>887677025500</v>
+      </c>
+      <c r="AI40" s="10">
+        <v>653202788644</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -3095,8 +4891,20 @@
       <c r="I41" s="6">
         <v>433174</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R41" s="10">
+        <v>170821202952</v>
+      </c>
+      <c r="S41" t="s">
+        <v>9</v>
+      </c>
+      <c r="V41" s="10">
+        <v>7488196515</v>
+      </c>
+      <c r="W41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -3124,8 +4932,20 @@
       <c r="I42" s="6">
         <v>4259875</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R42" s="10">
+        <v>1291907.611644</v>
+      </c>
+      <c r="S42" t="s">
+        <v>10</v>
+      </c>
+      <c r="V42" s="10">
+        <v>56936.811952999997</v>
+      </c>
+      <c r="W42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -3153,8 +4973,20 @@
       <c r="I43" s="6">
         <v>1004182</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R43" s="10">
+        <v>1291909.8097049999</v>
+      </c>
+      <c r="S43" t="s">
+        <v>11</v>
+      </c>
+      <c r="V43" s="10">
+        <v>56938.008996999997</v>
+      </c>
+      <c r="W43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -3182,8 +5014,26 @@
       <c r="I44" s="6">
         <v>4508441</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R44" s="10">
+        <v>2660562193137</v>
+      </c>
+      <c r="S44" t="s">
+        <v>15</v>
+      </c>
+      <c r="T44">
+        <v>93.917109487672334</v>
+      </c>
+      <c r="V44" s="10">
+        <v>52205906918</v>
+      </c>
+      <c r="W44" t="s">
+        <v>15</v>
+      </c>
+      <c r="X44">
+        <v>93.917109487672334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -3211,8 +5061,26 @@
       <c r="I45" s="6">
         <v>1020</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R45" s="10">
+        <v>2593490453050</v>
+      </c>
+      <c r="S45" t="s">
+        <v>16</v>
+      </c>
+      <c r="T45">
+        <v>63.468447074869474</v>
+      </c>
+      <c r="V45" s="10">
+        <v>41937350076</v>
+      </c>
+      <c r="W45" t="s">
+        <v>16</v>
+      </c>
+      <c r="X45">
+        <v>63.468447074869474</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -3241,7 +5109,44 @@
         <v>126632</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="R47" t="s">
+        <v>94</v>
+      </c>
+      <c r="S47" t="s">
+        <v>95</v>
+      </c>
+      <c r="T47" t="s">
+        <v>96</v>
+      </c>
+      <c r="U47" t="s">
+        <v>97</v>
+      </c>
+      <c r="V47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="Q48" t="s">
+        <v>90</v>
+      </c>
+      <c r="R48" s="10">
+        <v>2202585599063</v>
+      </c>
+      <c r="S48" s="10">
+        <v>632178469</v>
+      </c>
+      <c r="T48" s="10">
+        <v>292219852</v>
+      </c>
+      <c r="U48" s="10">
+        <v>2089119750384</v>
+      </c>
+      <c r="V48" s="10">
+        <v>1419933816951</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>2</v>
       </c>
@@ -3253,8 +5158,26 @@
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q49" t="s">
+        <v>91</v>
+      </c>
+      <c r="R49" s="10">
+        <v>85860186583</v>
+      </c>
+      <c r="S49" s="10">
+        <v>91456490</v>
+      </c>
+      <c r="T49" s="10">
+        <v>83326066</v>
+      </c>
+      <c r="U49" s="10">
+        <v>51308018271</v>
+      </c>
+      <c r="V49" s="10">
+        <v>41527600786</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>1</v>
       </c>
@@ -3279,8 +5202,26 @@
       <c r="I50">
         <v>128</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q50" t="s">
+        <v>92</v>
+      </c>
+      <c r="R50" s="10">
+        <v>87830712750</v>
+      </c>
+      <c r="S50" s="10">
+        <v>98977343</v>
+      </c>
+      <c r="T50" s="10">
+        <v>89435389</v>
+      </c>
+      <c r="U50" s="10">
+        <v>52205906918</v>
+      </c>
+      <c r="V50" s="10">
+        <v>41937350076</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>85</v>
       </c>
@@ -3308,8 +5249,26 @@
       <c r="I51" s="7">
         <v>1746792</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q51" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R51" s="10">
+        <v>91384491883</v>
+      </c>
+      <c r="S51" s="10">
+        <v>80172267</v>
+      </c>
+      <c r="T51" s="10">
+        <v>71772629</v>
+      </c>
+      <c r="U51" s="10">
+        <v>56565317064</v>
+      </c>
+      <c r="V51" s="10">
+        <v>44789627319</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>86</v>
       </c>
@@ -3338,7 +5297,7 @@
         <v>14041670</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>87</v>
       </c>
@@ -3367,18 +5326,18 @@
         <v>7659168</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>0</v>
       </c>
@@ -3391,7 +5350,7 @@
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>1</v>
       </c>
@@ -3417,7 +5376,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>41</v>
       </c>
@@ -3446,7 +5405,7 @@
         <v>1735253</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>42</v>
       </c>
@@ -3476,7 +5435,7 @@
       </c>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>43</v>
       </c>
@@ -3506,19 +5465,19 @@
       </c>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="1"/>
       <c r="E62" s="2"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="1"/>
       <c r="E63" s="2"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="1"/>
       <c r="E64" s="2"/>

--- a/Data Structures/linked_list/Singly Linked Buffer/MPMC_ALT.xlsx
+++ b/Data Structures/linked_list/Singly Linked Buffer/MPMC_ALT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="119">
   <si>
     <t xml:space="preserve"> Lockless Linked List Key Range 131072 (2^17)</t>
   </si>
@@ -317,6 +317,66 @@
   <si>
     <t>Lockless</t>
   </si>
+  <si>
+    <t>Test-and-test-and-set-no-pause</t>
+  </si>
+  <si>
+    <t>Test-and-test-and-set-relax</t>
+  </si>
+  <si>
+    <t>TAS_RELAX</t>
+  </si>
+  <si>
+    <t>Test-and-set-no-pause</t>
+  </si>
+  <si>
+    <t>Test-and-set-relax</t>
+  </si>
+  <si>
+    <t>Branches</t>
+  </si>
+  <si>
+    <t>Branch Misses</t>
+  </si>
+  <si>
+    <t>CASLOCK</t>
+  </si>
+  <si>
+    <t>CAS_ND</t>
+  </si>
+  <si>
+    <t>CAS_RELAX</t>
+  </si>
+  <si>
+    <t>Compare-and-swap-no-delay</t>
+  </si>
+  <si>
+    <t>Compare-and-swap-relax</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>Ticket-relax</t>
+  </si>
+  <si>
+    <t>Stoker 131072 Lockless</t>
+  </si>
+  <si>
+    <t>Stoker (32 Core) 128 Locked</t>
+  </si>
+  <si>
+    <t>Stoker (32 Core) 128 CAS lock</t>
+  </si>
+  <si>
+    <t>Stoker (32 Core) 131072 Locked</t>
+  </si>
+  <si>
+    <t>Stoker (32 Core) 131072 CAS lock</t>
+  </si>
+  <si>
+    <t>CAS 131072</t>
+  </si>
 </sst>
 </file>
 
@@ -374,11 +434,11 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1440,11 +1500,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100012800"/>
-        <c:axId val="100014720"/>
+        <c:axId val="100807040"/>
+        <c:axId val="100808960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100012800"/>
+        <c:axId val="100807040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,7 +1533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100014720"/>
+        <c:crossAx val="100808960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1481,7 +1541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100014720"/>
+        <c:axId val="100808960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1511,7 +1571,1210 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100012800"/>
+        <c:crossAx val="100807040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Singly Linked Buffer;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> All Machines</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>; Pthread Mutex Lock;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CY$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CZ$16:$DG$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CZ$17:$DG$17</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6107436</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6094813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3958987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3354190</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2181765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1282940</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1114249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1031046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CY$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local (4 Core) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CZ$16:$DG$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CZ$18:$DG$18</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3887204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>427857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>450560</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>432791</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>427762</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>423571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>420981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>417348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CY$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CZ$16:$DG$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CZ$19:$DG$19</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6884880</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6840837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6813889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4286208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6835357</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3902674</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4048684</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3045309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="91395584"/>
+        <c:axId val="91399680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="91395584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91399680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="91399680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91395584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Singly Linked Buffer;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> All Machines</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>; Test-and-test-and-set Lock;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CY$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CZ$22:$DG$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CZ$23:$DG$23</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6013980</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4175795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4187825</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4172561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4193381</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4253613</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4337613</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4435702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CY$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local (4 Core) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CZ$22:$DG$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CZ$24:$DG$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6681922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6624422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6670427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6628053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6592664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6595665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6311758</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2382859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CY$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CZ$22:$DG$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CZ$25:$DG$25</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5726698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4290472</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4451142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7595682</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4748178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4287261</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4926311</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4259875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="118886784"/>
+        <c:axId val="118889472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="118886784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="118889472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="118889472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="118886784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Singly Linked Buffer;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> All Machines</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>; Lockless;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CY$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker 128 Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CZ$43:$DG$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CZ$44:$DG$44</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6154253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5286149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2291047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1769882</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1635900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1590309</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1661880</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1746792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CY$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local 128 Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CZ$43:$DG$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CZ$45:$DG$45</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6335291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10745239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13155430</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13981627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13997103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14056761</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14156012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14041670</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CY$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube 128 Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CZ$43:$DG$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CZ$46:$DG$46</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5881113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12249391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4500646</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6073699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7386308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4803010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7833287</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7659168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="46172800"/>
+        <c:axId val="60106624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="46172800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60106624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="60106624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46172800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1759,11 +3022,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100057088"/>
-        <c:axId val="100059008"/>
+        <c:axId val="100830592"/>
+        <c:axId val="100849152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100057088"/>
+        <c:axId val="100830592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1792,7 +3055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100059008"/>
+        <c:crossAx val="100849152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1800,7 +3063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100059008"/>
+        <c:axId val="100849152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1830,7 +3093,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100057088"/>
+        <c:crossAx val="100830592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2242,11 +3505,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49769856"/>
-        <c:axId val="49800704"/>
+        <c:axId val="100885248"/>
+        <c:axId val="100887168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49769856"/>
+        <c:axId val="100885248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,7 +3538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49800704"/>
+        <c:crossAx val="100887168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2283,7 +3546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49800704"/>
+        <c:axId val="100887168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2313,7 +3576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49769856"/>
+        <c:crossAx val="100885248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2643,11 +3906,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49408256"/>
-        <c:axId val="49410432"/>
+        <c:axId val="100913920"/>
+        <c:axId val="100915840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49408256"/>
+        <c:axId val="100913920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2676,7 +3939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49410432"/>
+        <c:crossAx val="100915840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2684,7 +3947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49410432"/>
+        <c:axId val="100915840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2714,7 +3977,1880 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49408256"/>
+        <c:crossAx val="100913920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Singly Linked Buffer;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stoker; Test-and-test-and-set</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Lock Variations</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AO$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TTAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AP$15:$AW$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AP$16:$AW$16</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6012618</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>832842</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>315162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>245868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>194381</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>137444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>594343</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>499569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AO$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AP$15:$AW$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AP$17:$AW$17</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6013591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8758255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4284720</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8826226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4317215</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4381121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4448454</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6091243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AO$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TTAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AP$15:$AW$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AP$18:$AW$18</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6013594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>825629</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>299371</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>194184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>626464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>528790</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="107251968"/>
+        <c:axId val="107254144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="107251968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107254144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107254144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107251968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Singly Linked Buffer;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stoker; Test-and-set</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Lock Variations</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BC$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BD$15:$BK$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BD$16:$BK$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5584771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4030998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4025388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4057496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6223447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4142556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6393480</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4290946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BC$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BD$15:$BK$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BD$17:$BK$17</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4897345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1017778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>364873</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119518</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61071</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52887</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BC$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BD$15:$BK$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BD$18:$BK$18</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6029600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3524669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>394852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>258079</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143721</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68410</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54508</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27755</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="107301504"/>
+        <c:axId val="107311872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="107301504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107311872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107311872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107301504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Singly Linked Buffer;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stoker; Compare-and-swap</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Lock Variations</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BO$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) CAS lock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BP$15:$BW$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BP$16:$BW$16</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6009161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6015989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3629776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3598489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5600849</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3612955</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3852261</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4033675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BO$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) CAS lock No Delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BP$15:$BW$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BP$17:$BW$17</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6083191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3076001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1422801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>368350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>212443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140842</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>152286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134082</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BO$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) CASLOCK_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BP$15:$BW$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BP$18:$BW$18</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6083663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1418214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>849299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>376059</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205754</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>142886</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="107340544"/>
+        <c:axId val="107342464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="107340544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107342464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107342464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107340544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Singly Linked Buffer;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stoker; Ticket</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Lock Variations</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CA$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Ticket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CB$15:$CI$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CB$16:$CI$16</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6651286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CA$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TICKET_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CB$15:$CI$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CB$17:$CI$17</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4902628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8809796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>396981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>386563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="107393024"/>
+        <c:axId val="107394944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="107393024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107394944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107394944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107393024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Singly Linked Buffer;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stoker; Pthread Mutex Lock;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 128 &amp; 131072 Key Ranges</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CN$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 128 Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CO$16:$CV$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CO$17:$CV$17</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6107436</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6094813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3958987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3354190</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2181765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1282940</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1114249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1031046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CN$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 131072 Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$CO$16:$CV$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CO$21:$CV$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6105172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6085454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3768003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3302167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1451992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1327301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1192242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1178792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="107477248"/>
+        <c:axId val="107726336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="107477248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107726336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107726336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107477248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2859,6 +5995,262 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3154,10 +6546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:AL409"/>
+  <dimension ref="A6:DG409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q7" workbookViewId="0">
-      <selection activeCell="AD41" sqref="AD41"/>
+    <sheetView tabSelected="1" topLeftCell="CJ28" workbookViewId="0">
+      <selection activeCell="CW61" sqref="CW61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3171,9 +6563,18 @@
     <col min="17" max="17" width="22.7109375" customWidth="1"/>
     <col min="21" max="21" width="13.5703125" customWidth="1"/>
     <col min="30" max="30" width="23.28515625" customWidth="1"/>
+    <col min="41" max="41" width="26" customWidth="1"/>
+    <col min="45" max="45" width="16.140625" customWidth="1"/>
+    <col min="50" max="50" width="14" customWidth="1"/>
+    <col min="55" max="55" width="33.85546875" customWidth="1"/>
+    <col min="67" max="67" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="18.7109375" customWidth="1"/>
+    <col min="84" max="84" width="17.140625" customWidth="1"/>
+    <col min="92" max="92" width="26.85546875" customWidth="1"/>
+    <col min="103" max="103" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:111" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3183,20 +6584,20 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:111" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1</v>
       </c>
@@ -3222,7 +6623,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3251,7 +6652,7 @@
         <v>1031046</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -3280,7 +6681,7 @@
         <v>4487703</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -3309,7 +6710,7 @@
         <v>666084</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -3338,7 +6739,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3415,8 +6816,104 @@
       <c r="AL15">
         <v>128</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>2</v>
+      </c>
+      <c r="AR15">
+        <v>4</v>
+      </c>
+      <c r="AS15">
+        <v>8</v>
+      </c>
+      <c r="AT15">
+        <v>16</v>
+      </c>
+      <c r="AU15">
+        <v>32</v>
+      </c>
+      <c r="AV15">
+        <v>64</v>
+      </c>
+      <c r="AW15">
+        <v>128</v>
+      </c>
+      <c r="BD15">
+        <v>1</v>
+      </c>
+      <c r="BE15">
+        <v>2</v>
+      </c>
+      <c r="BF15">
+        <v>4</v>
+      </c>
+      <c r="BG15">
+        <v>8</v>
+      </c>
+      <c r="BH15">
+        <v>16</v>
+      </c>
+      <c r="BI15">
+        <v>32</v>
+      </c>
+      <c r="BJ15">
+        <v>64</v>
+      </c>
+      <c r="BK15">
+        <v>128</v>
+      </c>
+      <c r="BP15">
+        <v>1</v>
+      </c>
+      <c r="BQ15">
+        <v>2</v>
+      </c>
+      <c r="BR15">
+        <v>4</v>
+      </c>
+      <c r="BS15">
+        <v>8</v>
+      </c>
+      <c r="BT15">
+        <v>16</v>
+      </c>
+      <c r="BU15">
+        <v>32</v>
+      </c>
+      <c r="BV15">
+        <v>64</v>
+      </c>
+      <c r="BW15">
+        <v>128</v>
+      </c>
+      <c r="CB15">
+        <v>1</v>
+      </c>
+      <c r="CC15">
+        <v>2</v>
+      </c>
+      <c r="CD15">
+        <v>4</v>
+      </c>
+      <c r="CE15">
+        <v>8</v>
+      </c>
+      <c r="CF15">
+        <v>16</v>
+      </c>
+      <c r="CG15">
+        <v>32</v>
+      </c>
+      <c r="CH15">
+        <v>64</v>
+      </c>
+      <c r="CI15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -3498,8 +6995,164 @@
       <c r="AL16" s="6">
         <v>1214998</v>
       </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP16" s="6">
+        <v>6012618</v>
+      </c>
+      <c r="AQ16" s="6">
+        <v>832842</v>
+      </c>
+      <c r="AR16" s="6">
+        <v>315162</v>
+      </c>
+      <c r="AS16" s="6">
+        <v>245868</v>
+      </c>
+      <c r="AT16" s="6">
+        <v>194381</v>
+      </c>
+      <c r="AU16" s="6">
+        <v>137444</v>
+      </c>
+      <c r="AV16" s="6">
+        <v>594343</v>
+      </c>
+      <c r="AW16" s="6">
+        <v>499569</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD16">
+        <v>5584771</v>
+      </c>
+      <c r="BE16">
+        <v>4030998</v>
+      </c>
+      <c r="BF16">
+        <v>4025388</v>
+      </c>
+      <c r="BG16">
+        <v>4057496</v>
+      </c>
+      <c r="BH16">
+        <v>6223447</v>
+      </c>
+      <c r="BI16">
+        <v>4142556</v>
+      </c>
+      <c r="BJ16">
+        <v>6393480</v>
+      </c>
+      <c r="BK16">
+        <v>4290946</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP16" s="6">
+        <v>6009161</v>
+      </c>
+      <c r="BQ16" s="6">
+        <v>6015989</v>
+      </c>
+      <c r="BR16" s="6">
+        <v>3629776</v>
+      </c>
+      <c r="BS16" s="6">
+        <v>3598489</v>
+      </c>
+      <c r="BT16" s="6">
+        <v>5600849</v>
+      </c>
+      <c r="BU16" s="6">
+        <v>3612955</v>
+      </c>
+      <c r="BV16" s="6">
+        <v>3852261</v>
+      </c>
+      <c r="BW16" s="6">
+        <v>4033675</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>51</v>
+      </c>
+      <c r="CB16" s="6">
+        <v>6651286</v>
+      </c>
+      <c r="CC16" s="6">
+        <v>271</v>
+      </c>
+      <c r="CD16" s="6">
+        <v>113</v>
+      </c>
+      <c r="CE16" s="6">
+        <v>104</v>
+      </c>
+      <c r="CF16" s="6">
+        <v>118</v>
+      </c>
+      <c r="CG16" s="6">
+        <v>166</v>
+      </c>
+      <c r="CH16" s="6">
+        <v>193</v>
+      </c>
+      <c r="CI16" s="6">
+        <v>225</v>
+      </c>
+      <c r="CO16">
+        <v>1</v>
+      </c>
+      <c r="CP16">
+        <v>2</v>
+      </c>
+      <c r="CQ16">
+        <v>4</v>
+      </c>
+      <c r="CR16">
+        <v>8</v>
+      </c>
+      <c r="CS16">
+        <v>16</v>
+      </c>
+      <c r="CT16">
+        <v>32</v>
+      </c>
+      <c r="CU16">
+        <v>64</v>
+      </c>
+      <c r="CV16">
+        <v>128</v>
+      </c>
+      <c r="CZ16">
+        <v>1</v>
+      </c>
+      <c r="DA16">
+        <v>2</v>
+      </c>
+      <c r="DB16">
+        <v>4</v>
+      </c>
+      <c r="DC16">
+        <v>8</v>
+      </c>
+      <c r="DD16">
+        <v>16</v>
+      </c>
+      <c r="DE16">
+        <v>32</v>
+      </c>
+      <c r="DF16">
+        <v>64</v>
+      </c>
+      <c r="DG16">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -3581,8 +7234,170 @@
       <c r="AL17" s="6">
         <v>3150207</v>
       </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP17" s="6">
+        <v>6013591</v>
+      </c>
+      <c r="AQ17" s="6">
+        <v>8758255</v>
+      </c>
+      <c r="AR17" s="6">
+        <v>4284720</v>
+      </c>
+      <c r="AS17" s="6">
+        <v>8826226</v>
+      </c>
+      <c r="AT17" s="6">
+        <v>4317215</v>
+      </c>
+      <c r="AU17" s="6">
+        <v>4381121</v>
+      </c>
+      <c r="AV17" s="6">
+        <v>4448454</v>
+      </c>
+      <c r="AW17" s="6">
+        <v>6091243</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD17" s="6">
+        <v>4897345</v>
+      </c>
+      <c r="BE17" s="6">
+        <v>1017778</v>
+      </c>
+      <c r="BF17" s="6">
+        <v>364873</v>
+      </c>
+      <c r="BG17" s="6">
+        <v>230038</v>
+      </c>
+      <c r="BH17" s="6">
+        <v>119518</v>
+      </c>
+      <c r="BI17" s="6">
+        <v>61071</v>
+      </c>
+      <c r="BJ17" s="6">
+        <v>52887</v>
+      </c>
+      <c r="BK17" s="6">
+        <v>28239</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>50</v>
+      </c>
+      <c r="BP17" s="6">
+        <v>6083191</v>
+      </c>
+      <c r="BQ17" s="6">
+        <v>3076001</v>
+      </c>
+      <c r="BR17" s="6">
+        <v>1422801</v>
+      </c>
+      <c r="BS17" s="6">
+        <v>368350</v>
+      </c>
+      <c r="BT17" s="6">
+        <v>212443</v>
+      </c>
+      <c r="BU17" s="6">
+        <v>140842</v>
+      </c>
+      <c r="BV17" s="6">
+        <v>152286</v>
+      </c>
+      <c r="BW17" s="6">
+        <v>134082</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>58</v>
+      </c>
+      <c r="CB17" s="6">
+        <v>4902628</v>
+      </c>
+      <c r="CC17" s="6">
+        <v>8809796</v>
+      </c>
+      <c r="CD17" s="6">
+        <v>396981</v>
+      </c>
+      <c r="CE17" s="6">
+        <v>386563</v>
+      </c>
+      <c r="CF17" s="6">
+        <v>40168</v>
+      </c>
+      <c r="CG17" s="6">
+        <v>1144</v>
+      </c>
+      <c r="CH17" s="6">
+        <v>863</v>
+      </c>
+      <c r="CI17" s="6">
+        <v>1464</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>114</v>
+      </c>
+      <c r="CO17" s="6">
+        <v>6107436</v>
+      </c>
+      <c r="CP17" s="6">
+        <v>6094813</v>
+      </c>
+      <c r="CQ17" s="6">
+        <v>3958987</v>
+      </c>
+      <c r="CR17" s="6">
+        <v>3354190</v>
+      </c>
+      <c r="CS17" s="6">
+        <v>2181765</v>
+      </c>
+      <c r="CT17" s="6">
+        <v>1282940</v>
+      </c>
+      <c r="CU17" s="6">
+        <v>1114249</v>
+      </c>
+      <c r="CV17" s="6">
+        <v>1031046</v>
+      </c>
+      <c r="CY17" t="s">
+        <v>49</v>
+      </c>
+      <c r="CZ17" s="6">
+        <v>6107436</v>
+      </c>
+      <c r="DA17" s="6">
+        <v>6094813</v>
+      </c>
+      <c r="DB17" s="6">
+        <v>3958987</v>
+      </c>
+      <c r="DC17" s="6">
+        <v>3354190</v>
+      </c>
+      <c r="DD17" s="6">
+        <v>2181765</v>
+      </c>
+      <c r="DE17" s="6">
+        <v>1282940</v>
+      </c>
+      <c r="DF17" s="6">
+        <v>1114249</v>
+      </c>
+      <c r="DG17" s="6">
+        <v>1031046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -3664,8 +7479,143 @@
       <c r="AL18" s="6">
         <v>6091243</v>
       </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP18" s="6">
+        <v>6013594</v>
+      </c>
+      <c r="AQ18" s="6">
+        <v>825629</v>
+      </c>
+      <c r="AR18" s="6">
+        <v>299371</v>
+      </c>
+      <c r="AS18" s="6">
+        <v>240819</v>
+      </c>
+      <c r="AT18" s="6">
+        <v>194184</v>
+      </c>
+      <c r="AU18" s="6">
+        <v>136539</v>
+      </c>
+      <c r="AV18" s="6">
+        <v>626464</v>
+      </c>
+      <c r="AW18" s="6">
+        <v>528790</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD18" s="6">
+        <v>6029600</v>
+      </c>
+      <c r="BE18" s="6">
+        <v>3524669</v>
+      </c>
+      <c r="BF18" s="6">
+        <v>394852</v>
+      </c>
+      <c r="BG18" s="6">
+        <v>258079</v>
+      </c>
+      <c r="BH18" s="6">
+        <v>143721</v>
+      </c>
+      <c r="BI18" s="6">
+        <v>68410</v>
+      </c>
+      <c r="BJ18" s="6">
+        <v>54508</v>
+      </c>
+      <c r="BK18" s="6">
+        <v>27755</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>57</v>
+      </c>
+      <c r="BP18" s="6">
+        <v>6083663</v>
+      </c>
+      <c r="BQ18" s="6">
+        <v>1418214</v>
+      </c>
+      <c r="BR18" s="6">
+        <v>849299</v>
+      </c>
+      <c r="BS18" s="6">
+        <v>376059</v>
+      </c>
+      <c r="BT18" s="6">
+        <v>205754</v>
+      </c>
+      <c r="BU18" s="6">
+        <v>127421</v>
+      </c>
+      <c r="BV18" s="6">
+        <v>144015</v>
+      </c>
+      <c r="BW18" s="6">
+        <v>142886</v>
+      </c>
+      <c r="CN18" t="s">
+        <v>115</v>
+      </c>
+      <c r="CO18" s="6">
+        <v>6009161</v>
+      </c>
+      <c r="CP18" s="6">
+        <v>6015989</v>
+      </c>
+      <c r="CQ18" s="6">
+        <v>3629776</v>
+      </c>
+      <c r="CR18" s="6">
+        <v>3598489</v>
+      </c>
+      <c r="CS18" s="6">
+        <v>5600849</v>
+      </c>
+      <c r="CT18" s="6">
+        <v>3612955</v>
+      </c>
+      <c r="CU18" s="6">
+        <v>3852261</v>
+      </c>
+      <c r="CV18" s="6">
+        <v>4033675</v>
+      </c>
+      <c r="CY18" t="s">
+        <v>60</v>
+      </c>
+      <c r="CZ18" s="6">
+        <v>3887204</v>
+      </c>
+      <c r="DA18" s="6">
+        <v>427857</v>
+      </c>
+      <c r="DB18" s="6">
+        <v>450560</v>
+      </c>
+      <c r="DC18" s="6">
+        <v>432791</v>
+      </c>
+      <c r="DD18" s="6">
+        <v>427762</v>
+      </c>
+      <c r="DE18" s="6">
+        <v>423571</v>
+      </c>
+      <c r="DF18" s="6">
+        <v>420981</v>
+      </c>
+      <c r="DG18" s="6">
+        <v>417348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -3747,8 +7697,62 @@
       <c r="AL19">
         <v>4358686</v>
       </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="CN19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="CO19" s="7">
+        <v>6154253</v>
+      </c>
+      <c r="CP19" s="7">
+        <v>5286149</v>
+      </c>
+      <c r="CQ19" s="7">
+        <v>2291047</v>
+      </c>
+      <c r="CR19" s="7">
+        <v>1769882</v>
+      </c>
+      <c r="CS19" s="7">
+        <v>1635900</v>
+      </c>
+      <c r="CT19" s="7">
+        <v>1590309</v>
+      </c>
+      <c r="CU19" s="7">
+        <v>1661880</v>
+      </c>
+      <c r="CV19" s="7">
+        <v>1746792</v>
+      </c>
+      <c r="CY19" t="s">
+        <v>72</v>
+      </c>
+      <c r="CZ19" s="6">
+        <v>6884880</v>
+      </c>
+      <c r="DA19" s="6">
+        <v>6840837</v>
+      </c>
+      <c r="DB19" s="6">
+        <v>6813889</v>
+      </c>
+      <c r="DC19" s="6">
+        <v>4286208</v>
+      </c>
+      <c r="DD19" s="6">
+        <v>6835357</v>
+      </c>
+      <c r="DE19" s="6">
+        <v>3902674</v>
+      </c>
+      <c r="DF19" s="6">
+        <v>4048684</v>
+      </c>
+      <c r="DG19" s="6">
+        <v>3045309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -3830,8 +7834,35 @@
       <c r="AL20" s="7">
         <v>1490187</v>
       </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="CN20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="CO20" s="7">
+        <v>3121758</v>
+      </c>
+      <c r="CP20" s="7">
+        <v>4604201</v>
+      </c>
+      <c r="CQ20" s="7">
+        <v>2274387</v>
+      </c>
+      <c r="CR20" s="7">
+        <v>1784983</v>
+      </c>
+      <c r="CS20" s="7">
+        <v>1659003</v>
+      </c>
+      <c r="CT20" s="7">
+        <v>1590635</v>
+      </c>
+      <c r="CU20" s="7">
+        <v>1647571</v>
+      </c>
+      <c r="CV20" s="7">
+        <v>1735253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -3859,8 +7890,80 @@
       <c r="I21" s="6">
         <v>1464</v>
       </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BO21" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP21" s="9">
+        <v>84667413788</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BT21" s="9">
+        <v>2288580174358</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX21" s="9">
+        <v>2283020108829</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC21" s="9">
+        <v>15643624424</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>38</v>
+      </c>
+      <c r="CG21" s="9">
+        <v>2280461968782</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="CO21">
+        <v>6105172</v>
+      </c>
+      <c r="CP21">
+        <v>6085454</v>
+      </c>
+      <c r="CQ21">
+        <v>3768003</v>
+      </c>
+      <c r="CR21">
+        <v>3302167</v>
+      </c>
+      <c r="CS21">
+        <v>1451992</v>
+      </c>
+      <c r="CT21">
+        <v>1327301</v>
+      </c>
+      <c r="CU21">
+        <v>1192242</v>
+      </c>
+      <c r="CV21">
+        <v>1178792</v>
+      </c>
+    </row>
+    <row r="22" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -3888,8 +7991,143 @@
       <c r="I22" s="6">
         <v>31279</v>
       </c>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP22" s="9">
+        <v>91384491883</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT22" s="9">
+        <v>2262462194160</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY22" s="9">
+        <v>2264245375365</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD22" s="9">
+        <v>2630482716364</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH22" s="9">
+        <v>88527859808</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL22" s="9">
+        <v>2698348418455</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP22" s="9">
+        <v>83404666747</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT22" s="9">
+        <v>204900878260</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX22" s="9">
+        <v>163263545983</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>4</v>
+      </c>
+      <c r="CC22" s="9">
+        <v>17894969367</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>4</v>
+      </c>
+      <c r="CG22" s="9">
+        <v>635616716875</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="CO22">
+        <v>5999173</v>
+      </c>
+      <c r="CP22">
+        <v>6006466</v>
+      </c>
+      <c r="CQ22">
+        <v>4123778</v>
+      </c>
+      <c r="CR22">
+        <v>3876618</v>
+      </c>
+      <c r="CS22">
+        <v>3984037</v>
+      </c>
+      <c r="CT22">
+        <v>4168439</v>
+      </c>
+      <c r="CU22">
+        <v>8489621</v>
+      </c>
+      <c r="CV22">
+        <v>3632603</v>
+      </c>
+      <c r="CZ22">
+        <v>1</v>
+      </c>
+      <c r="DA22">
+        <v>2</v>
+      </c>
+      <c r="DB22">
+        <v>4</v>
+      </c>
+      <c r="DC22">
+        <v>8</v>
+      </c>
+      <c r="DD22">
+        <v>16</v>
+      </c>
+      <c r="DE22">
+        <v>32</v>
+      </c>
+      <c r="DF22">
+        <v>64</v>
+      </c>
+      <c r="DG22">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -3920,7 +8158,7 @@
       <c r="Q23" t="s">
         <v>84</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="9">
         <v>2202585599063</v>
       </c>
       <c r="S23" t="s">
@@ -3929,7 +8167,7 @@
       <c r="U23" t="s">
         <v>18</v>
       </c>
-      <c r="V23" s="10">
+      <c r="V23" s="9">
         <v>91384491883</v>
       </c>
       <c r="W23" t="s">
@@ -3938,7 +8176,7 @@
       <c r="Y23" t="s">
         <v>22</v>
       </c>
-      <c r="Z23" s="10">
+      <c r="Z23" s="9">
         <v>85860186583</v>
       </c>
       <c r="AA23" t="s">
@@ -3947,14 +8185,108 @@
       <c r="AD23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AE23" s="10">
+      <c r="AE23" s="9">
         <v>942322908666</v>
       </c>
       <c r="AF23" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP23" s="9">
+        <v>82585421426</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT23" s="9">
+        <v>582042781902</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY23" s="9">
+        <v>180676560987</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD23" s="9">
+        <v>31273044623</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH23" s="9">
+        <v>82489208246</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK23" s="6"/>
+      <c r="BL23" s="9">
+        <v>38978543960</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP23" s="9">
+        <v>98813657</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT23" s="9">
+        <v>706779824</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BX23" s="9">
+        <v>723277345</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>5</v>
+      </c>
+      <c r="CC23" s="9">
+        <v>30918779</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>5</v>
+      </c>
+      <c r="CG23" s="9">
+        <v>218895429</v>
+      </c>
+      <c r="CH23" t="s">
+        <v>5</v>
+      </c>
+      <c r="CY23" t="s">
+        <v>55</v>
+      </c>
+      <c r="CZ23" s="6">
+        <v>6013980</v>
+      </c>
+      <c r="DA23" s="6">
+        <v>4175795</v>
+      </c>
+      <c r="DB23" s="6">
+        <v>4187825</v>
+      </c>
+      <c r="DC23" s="6">
+        <v>4172561</v>
+      </c>
+      <c r="DD23" s="6">
+        <v>4193381</v>
+      </c>
+      <c r="DE23" s="6">
+        <v>4253613</v>
+      </c>
+      <c r="DF23" s="6">
+        <v>4337613</v>
+      </c>
+      <c r="DG23" s="6">
+        <v>4435702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -3982,33 +8314,146 @@
       <c r="I24" s="6">
         <v>14115897</v>
       </c>
-      <c r="R24" s="10">
+      <c r="R24" s="9">
         <v>210887858402</v>
       </c>
       <c r="S24" t="s">
         <v>4</v>
       </c>
-      <c r="V24" s="10">
+      <c r="V24" s="9">
         <v>82585421426</v>
       </c>
       <c r="W24" t="s">
         <v>4</v>
       </c>
-      <c r="Z24" s="10">
+      <c r="Z24" s="9">
         <v>82462774107</v>
       </c>
       <c r="AA24" t="s">
         <v>4</v>
       </c>
       <c r="AD24" s="4"/>
-      <c r="AE24" s="10">
+      <c r="AE24" s="9">
         <v>105109197665</v>
       </c>
       <c r="AF24" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP24" s="9">
+        <v>80172267</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT24" s="9">
+        <v>633975101</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY24" s="9">
+        <v>509254180</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD24" s="9">
+        <v>249174426</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH24" s="9">
+        <v>87000432</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL24" s="9">
+        <v>268489695</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP24" s="9">
+        <v>88835912</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR24" s="8">
+        <f>BP24/BP23*100</f>
+        <v>89.902463583551011</v>
+      </c>
+      <c r="BT24" s="9">
+        <v>456881599</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV24" s="8">
+        <f>BT24/BT23*100</f>
+        <v>64.642705335629387</v>
+      </c>
+      <c r="BX24" s="9">
+        <v>470274664</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ24" s="8">
+        <f>BX24/BX23*100</f>
+        <v>65.019963261810716</v>
+      </c>
+      <c r="CC24" s="9">
+        <v>25198381</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE24">
+        <f>CC24/CC23*100</f>
+        <v>81.498629037065143</v>
+      </c>
+      <c r="CG24" s="9">
+        <v>115931270</v>
+      </c>
+      <c r="CH24" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI24">
+        <f>CG24/CG23*100</f>
+        <v>52.9619419325563</v>
+      </c>
+      <c r="CY24" t="s">
+        <v>67</v>
+      </c>
+      <c r="CZ24" s="6">
+        <v>6681922</v>
+      </c>
+      <c r="DA24" s="6">
+        <v>6624422</v>
+      </c>
+      <c r="DB24" s="6">
+        <v>6670427</v>
+      </c>
+      <c r="DC24" s="6">
+        <v>6628053</v>
+      </c>
+      <c r="DD24" s="6">
+        <v>6592664</v>
+      </c>
+      <c r="DE24" s="6">
+        <v>6595665</v>
+      </c>
+      <c r="DF24" s="6">
+        <v>6311758</v>
+      </c>
+      <c r="DG24" s="6">
+        <v>2382859</v>
+      </c>
+    </row>
+    <row r="25" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -4036,33 +8481,159 @@
       <c r="I25" s="6">
         <v>7360144</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R25" s="9">
         <v>632178469</v>
       </c>
       <c r="S25" t="s">
         <v>5</v>
       </c>
-      <c r="V25" s="10">
+      <c r="V25" s="9">
         <v>80172267</v>
       </c>
       <c r="W25" t="s">
         <v>5</v>
       </c>
-      <c r="Z25" s="10">
+      <c r="Z25" s="9">
         <v>91456490</v>
       </c>
       <c r="AA25" t="s">
         <v>5</v>
       </c>
       <c r="AD25" s="4"/>
-      <c r="AE25" s="10">
+      <c r="AE25" s="9">
         <v>699215767</v>
       </c>
       <c r="AF25" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP25" s="9">
+        <v>71772629</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR25" s="8">
+        <f>AP25/AP24*100</f>
+        <v>89.523012989017758</v>
+      </c>
+      <c r="AT25" s="9">
+        <v>278339181</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV25" s="8">
+        <f>AT25/AT24*100</f>
+        <v>43.903803250468663</v>
+      </c>
+      <c r="AY25" s="9">
+        <v>232237026</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA25" s="8">
+        <f>AY25/AY24*100</f>
+        <v>45.603361763275068</v>
+      </c>
+      <c r="BD25" s="9">
+        <v>224221625</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF25" s="8">
+        <f>BD25/BD24*100</f>
+        <v>89.985809779692232</v>
+      </c>
+      <c r="BH25" s="9">
+        <v>79400328</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ25" s="8">
+        <f>BH25/BH24*100</f>
+        <v>91.264291653172478</v>
+      </c>
+      <c r="BL25" s="9">
+        <v>248578166</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN25" s="8">
+        <f>BL25/BL24*100</f>
+        <v>92.583875891400595</v>
+      </c>
+      <c r="BP25" s="9">
+        <v>16978737207</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT25" s="9">
+        <v>73210572178</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX25" s="9">
+        <v>57792484712</v>
+      </c>
+      <c r="BY25" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC25" s="9">
+        <v>3661923334</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG25" s="9">
+        <v>157707286313</v>
+      </c>
+      <c r="CH25" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN25" t="s">
+        <v>118</v>
+      </c>
+      <c r="CO25" s="9">
+        <v>91270042196</v>
+      </c>
+      <c r="CP25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CY25" t="s">
+        <v>77</v>
+      </c>
+      <c r="CZ25" s="6">
+        <v>5726698</v>
+      </c>
+      <c r="DA25" s="6">
+        <v>4290472</v>
+      </c>
+      <c r="DB25" s="6">
+        <v>4451142</v>
+      </c>
+      <c r="DC25" s="6">
+        <v>7595682</v>
+      </c>
+      <c r="DD25" s="6">
+        <v>4748178</v>
+      </c>
+      <c r="DE25" s="6">
+        <v>4287261</v>
+      </c>
+      <c r="DF25" s="6">
+        <v>4926311</v>
+      </c>
+      <c r="DG25" s="6">
+        <v>4259875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -4090,7 +8661,7 @@
       <c r="I26" s="6">
         <v>1113</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R26" s="9">
         <v>292219852</v>
       </c>
       <c r="S26" t="s">
@@ -4099,7 +8670,7 @@
       <c r="T26">
         <v>44.434377859752225</v>
       </c>
-      <c r="V26" s="10">
+      <c r="V26" s="9">
         <v>71772629</v>
       </c>
       <c r="W26" t="s">
@@ -4108,7 +8679,7 @@
       <c r="X26">
         <v>91.31047094358334</v>
       </c>
-      <c r="Z26" s="10">
+      <c r="Z26" s="9">
         <v>83326066</v>
       </c>
       <c r="AA26" t="s">
@@ -4118,7 +8689,7 @@
         <v>72.98154682712233</v>
       </c>
       <c r="AD26" s="4"/>
-      <c r="AE26" s="10">
+      <c r="AE26" s="9">
         <v>468130514</v>
       </c>
       <c r="AF26" s="1" t="s">
@@ -4128,37 +8699,225 @@
         <f>AE26/AE25*100</f>
         <v>66.950794889612382</v>
       </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP26" s="9">
+        <v>16536998769</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT26" s="9">
+        <v>192670655712</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY26" s="9">
+        <v>43500732174</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD26" s="9">
+        <v>6608542881</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH26" s="9">
+        <v>16576126691</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL26" s="9">
+        <v>8149072308</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP26" s="9">
+        <v>5199655</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR26" s="8">
+        <f>BP26/BP25*100</f>
+        <v>3.0624509565153554E-2</v>
+      </c>
+      <c r="BT26" s="9">
+        <v>85366208</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV26" s="8">
+        <f>BT26/BT25*100</f>
+        <v>0.1166036618214723</v>
+      </c>
+      <c r="BX26" s="9">
+        <v>82224146</v>
+      </c>
+      <c r="BY26" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ26" s="8">
+        <f>BX26/BX25*100</f>
+        <v>0.14227480685378288</v>
+      </c>
+      <c r="CC26" s="9">
+        <v>2147553</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE26">
+        <f>CC26/CC25*100</f>
+        <v>5.8645493204637363E-2</v>
+      </c>
+      <c r="CG26" s="9">
+        <v>19138851</v>
+      </c>
+      <c r="CH26" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI26">
+        <f>CG26/CG25*100</f>
+        <v>1.2135679617246931E-2</v>
+      </c>
+      <c r="CO26" s="9">
+        <v>90690774800</v>
+      </c>
+      <c r="CP26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27" s="9">
         <v>70017259408</v>
       </c>
       <c r="S27" t="s">
         <v>7</v>
       </c>
-      <c r="V27" s="10">
+      <c r="V27" s="9">
         <v>16536998769</v>
       </c>
       <c r="W27" t="s">
         <v>7</v>
       </c>
-      <c r="Z27" s="10">
+      <c r="Z27" s="9">
         <v>16685113624</v>
       </c>
       <c r="AA27" t="s">
         <v>7</v>
       </c>
-      <c r="AE27" s="10">
+      <c r="AE27" s="9">
         <v>28620956466</v>
       </c>
       <c r="AF27" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP27" s="9">
+        <v>9759767</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR27" s="8">
+        <f>AP27/AP26*100</f>
+        <v>5.9017764567386354E-2</v>
+      </c>
+      <c r="AT27" s="9">
+        <v>59852015</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV27" s="8">
+        <f>AT27/AT26*100</f>
+        <v>3.1064416518862905E-2</v>
+      </c>
+      <c r="AY27" s="9">
+        <v>51840803</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA27" s="8">
+        <f>AY27/AY26*100</f>
+        <v>0.11917225391204975</v>
+      </c>
+      <c r="BD27" s="9">
+        <v>20437689</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF27" s="8">
+        <f>BD27/BD26*100</f>
+        <v>0.30926165371128506</v>
+      </c>
+      <c r="BH27" s="9">
+        <v>11410747</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>8</v>
+      </c>
+      <c r="BJ27" s="8">
+        <f>BH27/BH26*100</f>
+        <v>6.8838439840083143E-2</v>
+      </c>
+      <c r="BL27" s="9">
+        <v>20642230</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>8</v>
+      </c>
+      <c r="BN27" s="8">
+        <f>BL27/BL26*100</f>
+        <v>0.25330772902500059</v>
+      </c>
+      <c r="BP27" s="9">
+        <v>7503989158</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT27" s="9">
+        <v>147613980721</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX27" s="9">
+        <v>146498766229</v>
+      </c>
+      <c r="BY27" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC27" s="9">
+        <v>991709338</v>
+      </c>
+      <c r="CD27" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG27" s="9">
+        <v>143072474406</v>
+      </c>
+      <c r="CH27" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO27" s="9">
+        <v>107827790</v>
+      </c>
+      <c r="CP27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -4186,7 +8945,7 @@
       <c r="I28" s="6">
         <v>3800070</v>
       </c>
-      <c r="R28" s="10">
+      <c r="R28" s="9">
         <v>79490726</v>
       </c>
       <c r="S28" t="s">
@@ -4195,7 +8954,7 @@
       <c r="T28">
         <v>8.4829484238065064E-2</v>
       </c>
-      <c r="V28" s="10">
+      <c r="V28" s="9">
         <v>9759767</v>
       </c>
       <c r="W28" t="s">
@@ -4204,7 +8963,7 @@
       <c r="X28">
         <v>2.6367329568261117E-2</v>
       </c>
-      <c r="Z28" s="10">
+      <c r="Z28" s="9">
         <v>11109930</v>
       </c>
       <c r="AA28" t="s">
@@ -4213,7 +8972,7 @@
       <c r="AB28">
         <v>3.4478659030337672E-2</v>
       </c>
-      <c r="AE28" s="10">
+      <c r="AE28" s="9">
         <v>95634737</v>
       </c>
       <c r="AF28" s="1" t="s">
@@ -4223,8 +8982,84 @@
         <f>AE28/AE27*100</f>
         <v>0.33414235164924833</v>
       </c>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP28" s="9">
+        <v>7492998529</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT28" s="9">
+        <v>141875613364</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY28" s="9">
+        <v>144850508452</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD28" s="9">
+        <v>170069131463</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH28" s="9">
+        <v>7494936263</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL28" s="9">
+        <v>172794720394</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP28" s="9">
+        <v>57011.897671999999</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>10</v>
+      </c>
+      <c r="BT28" s="9">
+        <v>1119393.6948269999</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>10</v>
+      </c>
+      <c r="BX28" s="9">
+        <v>1110333.2178110001</v>
+      </c>
+      <c r="BY28" t="s">
+        <v>10</v>
+      </c>
+      <c r="CC28" s="9">
+        <v>7654.6302169999999</v>
+      </c>
+      <c r="CD28" t="s">
+        <v>10</v>
+      </c>
+      <c r="CG28" s="9">
+        <v>1083086.6228169999</v>
+      </c>
+      <c r="CH28" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO28" s="9">
+        <v>98922292</v>
+      </c>
+      <c r="CP28" t="s">
+        <v>6</v>
+      </c>
+      <c r="CQ28">
+        <f>CO28/CO27*100</f>
+        <v>91.740999235911261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -4252,32 +9087,104 @@
       <c r="I29" s="6">
         <v>4446192</v>
       </c>
-      <c r="R29" s="10">
+      <c r="R29" s="9">
         <v>146237642275</v>
       </c>
       <c r="S29" t="s">
         <v>9</v>
       </c>
-      <c r="V29" s="10">
+      <c r="V29" s="9">
         <v>7492998529</v>
       </c>
       <c r="W29" t="s">
         <v>9</v>
       </c>
-      <c r="Z29" s="10">
+      <c r="Z29" s="9">
         <v>7506143790</v>
       </c>
       <c r="AA29" t="s">
         <v>9</v>
       </c>
-      <c r="AE29" s="10">
+      <c r="AE29" s="9">
         <v>70168743533</v>
       </c>
       <c r="AF29" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP29" s="9">
+        <v>56886.674969</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT29" s="9">
+        <v>1074173.2494089999</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY29" s="9">
+        <v>1095399.3401200001</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD29" s="9">
+        <v>1287380.906406</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH29" s="9">
+        <v>56956.399166000003</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>10</v>
+      </c>
+      <c r="BL29" s="9">
+        <v>1305862.365977</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP29" s="9">
+        <v>57012.109436999999</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT29" s="9">
+        <v>1119393.159159</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX29" s="9">
+        <v>1110326.5856979999</v>
+      </c>
+      <c r="BY29" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC29" s="9">
+        <v>7655.1935789999998</v>
+      </c>
+      <c r="CD29" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG29" s="9">
+        <v>1083089.6368259999</v>
+      </c>
+      <c r="CH29" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO29" s="9">
+        <v>18557411259</v>
+      </c>
+      <c r="CP29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -4305,32 +9212,128 @@
       <c r="I30" s="6">
         <v>2382859</v>
       </c>
-      <c r="R30" s="10">
+      <c r="R30" s="9">
         <v>1107224.669398</v>
       </c>
       <c r="S30" t="s">
         <v>10</v>
       </c>
-      <c r="V30" s="10">
+      <c r="V30" s="9">
         <v>56886.674969</v>
       </c>
       <c r="W30" t="s">
         <v>10</v>
       </c>
-      <c r="Z30" s="10">
+      <c r="Z30" s="9">
         <v>56981.005034000002</v>
       </c>
       <c r="AA30" t="s">
         <v>10</v>
       </c>
-      <c r="AE30" s="10">
+      <c r="AE30" s="9">
         <v>533364.89931200002</v>
       </c>
       <c r="AF30" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP30" s="9">
+        <v>56886.886126999998</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT30" s="9">
+        <v>1074173.4631759999</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY30" s="9">
+        <v>1095399.2982290001</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD30" s="9">
+        <v>1287377.928384</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH30" s="9">
+        <v>56957.595169</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL30" s="9">
+        <v>1305864.667692</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>11</v>
+      </c>
+      <c r="BP30" s="9">
+        <v>49895584597</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR30" s="8">
+        <f>BP30/BP21*100</f>
+        <v>58.931272805774249</v>
+      </c>
+      <c r="BT30" s="9">
+        <v>2172822987115</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>15</v>
+      </c>
+      <c r="BV30" s="8">
+        <f>BT30/BT21*100</f>
+        <v>94.941964955391057</v>
+      </c>
+      <c r="BX30" s="9">
+        <v>2188948555481</v>
+      </c>
+      <c r="BY30" t="s">
+        <v>15</v>
+      </c>
+      <c r="BZ30" s="8">
+        <f>BX30/BX21*100</f>
+        <v>95.879512712822716</v>
+      </c>
+      <c r="CC30" s="9">
+        <v>8516720053</v>
+      </c>
+      <c r="CD30" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE30">
+        <f>CC30/CC21*100</f>
+        <v>54.4421153446633</v>
+      </c>
+      <c r="CG30" s="9">
+        <v>1889729762635</v>
+      </c>
+      <c r="CH30" t="s">
+        <v>15</v>
+      </c>
+      <c r="CI30">
+        <f>CG30/CG21*100</f>
+        <v>82.866094173204246</v>
+      </c>
+      <c r="CO30" s="9">
+        <v>5868592</v>
+      </c>
+      <c r="CP30" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ30">
+        <f>CO30/CO29*100</f>
+        <v>3.1623979864938548E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -4358,32 +9361,148 @@
       <c r="I31" s="6">
         <v>4048673</v>
       </c>
-      <c r="R31" s="10">
+      <c r="R31" s="9">
         <v>1107211.2498389999</v>
       </c>
       <c r="S31" t="s">
         <v>11</v>
       </c>
-      <c r="V31" s="10">
+      <c r="V31" s="9">
         <v>56886.886126999998</v>
       </c>
       <c r="W31" t="s">
         <v>11</v>
       </c>
-      <c r="Z31" s="10">
+      <c r="Z31" s="9">
         <v>56981.141070999998</v>
       </c>
       <c r="AA31" t="s">
         <v>11</v>
       </c>
-      <c r="AE31" s="10">
+      <c r="AE31" s="9">
         <v>533357.16200600006</v>
       </c>
       <c r="AF31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP31" s="9">
+        <v>56565317064</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR31" s="8">
+        <f>AP31/AP22*100</f>
+        <v>61.898157880464936</v>
+      </c>
+      <c r="AT31" s="9">
+        <v>1876667418239</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV31" s="8">
+        <f>AT31/AT22*100</f>
+        <v>82.948012262178963</v>
+      </c>
+      <c r="AY31" s="9">
+        <v>2157473443512</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA31" s="8">
+        <f>AY31/AY22*100</f>
+        <v>95.284436350641187</v>
+      </c>
+      <c r="BD31" s="9">
+        <v>2616283451300</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>15</v>
+      </c>
+      <c r="BF31" s="8">
+        <f>BD31/BD22*100</f>
+        <v>99.460203065556456</v>
+      </c>
+      <c r="BH31" s="9">
+        <v>53679088063</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>15</v>
+      </c>
+      <c r="BJ31" s="8">
+        <f>BH31/BH22*100</f>
+        <v>60.63524881254294</v>
+      </c>
+      <c r="BL31" s="9">
+        <v>2674641137718</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>15</v>
+      </c>
+      <c r="BN31" s="8">
+        <f>BL31/BL22*100</f>
+        <v>99.121415137687293</v>
+      </c>
+      <c r="BP31" s="9">
+        <v>40444387340</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR31" s="8">
+        <f>BP31/BP21*100</f>
+        <v>47.768539902812321</v>
+      </c>
+      <c r="BT31" s="9">
+        <v>1762616320835</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV31" s="8">
+        <f>BT31/BT21*100</f>
+        <v>77.017896973150826</v>
+      </c>
+      <c r="BX31" s="9">
+        <v>1820836215277</v>
+      </c>
+      <c r="BY31" t="s">
+        <v>16</v>
+      </c>
+      <c r="BZ31" s="8">
+        <f>BX31/BX21*100</f>
+        <v>79.755592525680299</v>
+      </c>
+      <c r="CC31" s="9">
+        <v>7092305021</v>
+      </c>
+      <c r="CD31" t="s">
+        <v>16</v>
+      </c>
+      <c r="CE31">
+        <f>CC31/CC21*100</f>
+        <v>45.336712444458769</v>
+      </c>
+      <c r="CG31" s="9">
+        <v>1404302569452</v>
+      </c>
+      <c r="CH31" t="s">
+        <v>16</v>
+      </c>
+      <c r="CI31">
+        <f>CG31/CG21*100</f>
+        <v>61.579740801467572</v>
+      </c>
+      <c r="CO31" s="9">
+        <v>7536599487</v>
+      </c>
+      <c r="CP31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -4411,7 +9530,7 @@
       <c r="I32" s="6">
         <v>7868681</v>
       </c>
-      <c r="R32" s="10">
+      <c r="R32" s="9">
         <v>2089119750384</v>
       </c>
       <c r="S32" t="s">
@@ -4420,7 +9539,7 @@
       <c r="T32">
         <v>93.917109487672334</v>
       </c>
-      <c r="V32" s="10">
+      <c r="V32" s="9">
         <v>56565317064</v>
       </c>
       <c r="W32" t="s">
@@ -4429,7 +9548,7 @@
       <c r="X32">
         <v>59.559950503294154</v>
       </c>
-      <c r="Z32" s="10">
+      <c r="Z32" s="9">
         <v>51308018271</v>
       </c>
       <c r="AA32" t="s">
@@ -4438,7 +9557,7 @@
       <c r="AB32">
         <v>69.624266612618086</v>
       </c>
-      <c r="AE32" s="10">
+      <c r="AE32" s="9">
         <v>887677025500</v>
       </c>
       <c r="AF32" t="s">
@@ -4448,8 +9567,74 @@
         <f>AE32/AE23*100</f>
         <v>94.200938694851487</v>
       </c>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AP32" s="9">
+        <v>44789627319</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR32" s="8">
+        <f>AP32/AP22*100</f>
+        <v>49.012284684303296</v>
+      </c>
+      <c r="AT32" s="9">
+        <v>935135342343</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV32" s="8">
+        <f>AT32/AT22*100</f>
+        <v>41.332639491471994</v>
+      </c>
+      <c r="AY32" s="9">
+        <v>1960315419324</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA32" s="8">
+        <f>AY32/AY22*100</f>
+        <v>86.576986781213762</v>
+      </c>
+      <c r="BD32" s="9">
+        <v>2550951625797</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF32" s="8">
+        <f>BD32/BD22*100</f>
+        <v>96.976559090381244</v>
+      </c>
+      <c r="BH32" s="9">
+        <v>43919957008</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ32" s="8">
+        <f>BH32/BH22*100</f>
+        <v>49.611452375844159</v>
+      </c>
+      <c r="BL32" s="9">
+        <v>2525910806240</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>16</v>
+      </c>
+      <c r="BN32" s="8">
+        <f>BL32/BL22*100</f>
+        <v>93.609512728762695</v>
+      </c>
+      <c r="CO32" s="9">
+        <v>57191.170869000001</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -4477,7 +9662,7 @@
       <c r="I33" s="6">
         <v>274279</v>
       </c>
-      <c r="R33" s="10">
+      <c r="R33" s="9">
         <v>1419933816951</v>
       </c>
       <c r="S33" t="s">
@@ -4486,7 +9671,7 @@
       <c r="T33">
         <v>63.468447074869474</v>
       </c>
-      <c r="V33" s="10">
+      <c r="V33" s="9">
         <v>44789627319</v>
       </c>
       <c r="W33" t="s">
@@ -4495,7 +9680,7 @@
       <c r="X33">
         <v>48.342952534878577</v>
       </c>
-      <c r="Z33" s="10">
+      <c r="Z33" s="9">
         <v>41527600786</v>
       </c>
       <c r="AA33" t="s">
@@ -4504,7 +9689,7 @@
       <c r="AB33">
         <v>42.662589725996227</v>
       </c>
-      <c r="AE33" s="10">
+      <c r="AE33" s="9">
         <v>653202788644</v>
       </c>
       <c r="AF33" t="s">
@@ -4514,8 +9699,56 @@
         <f>AE33/AE23*100</f>
         <v>69.318360260253769</v>
       </c>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="BP33" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>104</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>105</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>96</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>94</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>96</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>97</v>
+      </c>
+      <c r="CI33" t="s">
+        <v>97</v>
+      </c>
+      <c r="CO33" s="9">
+        <v>57191.358446999999</v>
+      </c>
+      <c r="CP33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -4543,10 +9776,83 @@
       <c r="I34" s="6">
         <v>2949705</v>
       </c>
-      <c r="R34" s="11"/>
-      <c r="V34" s="11"/>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="R34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="BD34" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>97</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP34" s="9">
+        <v>84667413788</v>
+      </c>
+      <c r="BQ34" s="9">
+        <v>98813657</v>
+      </c>
+      <c r="BR34" s="9">
+        <v>88835912</v>
+      </c>
+      <c r="BS34" s="9">
+        <v>16978737207</v>
+      </c>
+      <c r="BT34" s="9">
+        <v>5199655</v>
+      </c>
+      <c r="BU34" s="9">
+        <v>49895584597</v>
+      </c>
+      <c r="BV34" s="9">
+        <v>40444387340</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>111</v>
+      </c>
+      <c r="CC34" s="9">
+        <v>15643624424</v>
+      </c>
+      <c r="CD34" s="9">
+        <v>30918779</v>
+      </c>
+      <c r="CE34" s="9">
+        <v>25198381</v>
+      </c>
+      <c r="CF34" s="9">
+        <v>3661923334</v>
+      </c>
+      <c r="CG34" s="9">
+        <v>2147553</v>
+      </c>
+      <c r="CH34" s="9">
+        <v>8516720053</v>
+      </c>
+      <c r="CI34" s="9">
+        <v>7092305021</v>
+      </c>
+      <c r="CO34" s="9">
+        <v>53369918602</v>
+      </c>
+      <c r="CP34" t="s">
+        <v>15</v>
+      </c>
+      <c r="CQ34">
+        <f>CO34/CO25*100</f>
+        <v>58.474738608523388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -4577,7 +9883,7 @@
       <c r="Q35" t="s">
         <v>89</v>
       </c>
-      <c r="R35" s="10">
+      <c r="R35" s="9">
         <v>2676043396360</v>
       </c>
       <c r="S35" t="s">
@@ -4586,14 +9892,90 @@
       <c r="U35" t="s">
         <v>26</v>
       </c>
-      <c r="V35" s="10">
+      <c r="V35" s="9">
         <v>87830712750</v>
       </c>
       <c r="W35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="BC35" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD35" s="9">
+        <v>88527859808</v>
+      </c>
+      <c r="BE35" s="9">
+        <v>16576126691</v>
+      </c>
+      <c r="BF35" s="9">
+        <v>11410747</v>
+      </c>
+      <c r="BG35" s="9">
+        <v>53679088063</v>
+      </c>
+      <c r="BH35" s="9">
+        <v>43919957008</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>109</v>
+      </c>
+      <c r="BP35" s="9">
+        <v>2288580174358</v>
+      </c>
+      <c r="BQ35" s="9">
+        <v>706779824</v>
+      </c>
+      <c r="BR35" s="9">
+        <v>456881599</v>
+      </c>
+      <c r="BS35" s="9">
+        <v>73210572178</v>
+      </c>
+      <c r="BT35" s="9">
+        <v>85366208</v>
+      </c>
+      <c r="BU35" s="9">
+        <v>2172822987115</v>
+      </c>
+      <c r="BV35" s="9">
+        <v>1762616320835</v>
+      </c>
+      <c r="CB35" t="s">
+        <v>112</v>
+      </c>
+      <c r="CC35" s="9">
+        <v>2280461968782</v>
+      </c>
+      <c r="CD35" s="9">
+        <v>218895429</v>
+      </c>
+      <c r="CE35" s="9">
+        <v>115931270</v>
+      </c>
+      <c r="CF35" s="9">
+        <v>157707286313</v>
+      </c>
+      <c r="CG35" s="9">
+        <v>19138851</v>
+      </c>
+      <c r="CH35" s="9">
+        <v>1889729762635</v>
+      </c>
+      <c r="CI35" s="9">
+        <v>1404302569452</v>
+      </c>
+      <c r="CO35" s="9">
+        <v>43248972700</v>
+      </c>
+      <c r="CP35" t="s">
+        <v>16</v>
+      </c>
+      <c r="CQ35">
+        <f>CO35/CO25*100</f>
+        <v>47.38572664086643</v>
+      </c>
+    </row>
+    <row r="36" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -4621,20 +10003,77 @@
       <c r="I36" s="6">
         <v>4296401</v>
       </c>
-      <c r="R36" s="10">
+      <c r="R36" s="9">
         <v>32081013529</v>
       </c>
       <c r="S36" t="s">
         <v>4</v>
       </c>
-      <c r="V36" s="10">
+      <c r="V36" s="9">
         <v>85136250591</v>
       </c>
       <c r="W36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AP36" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC36" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD36" s="9">
+        <v>2630482716364</v>
+      </c>
+      <c r="BE36" s="9">
+        <v>6608542881</v>
+      </c>
+      <c r="BF36" s="9">
+        <v>20437689</v>
+      </c>
+      <c r="BG36" s="9">
+        <v>2616283451300</v>
+      </c>
+      <c r="BH36" s="9">
+        <v>2550951625797</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>110</v>
+      </c>
+      <c r="BP36" s="9">
+        <v>2283020108829</v>
+      </c>
+      <c r="BQ36" s="9">
+        <v>723277345</v>
+      </c>
+      <c r="BR36" s="9">
+        <v>470274664</v>
+      </c>
+      <c r="BS36" s="9">
+        <v>57792484712</v>
+      </c>
+      <c r="BT36" s="9">
+        <v>82224146</v>
+      </c>
+      <c r="BU36" s="9">
+        <v>2188948555481</v>
+      </c>
+      <c r="BV36" s="9">
+        <v>1820836215277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -4662,13 +10101,13 @@
       <c r="I37" s="6">
         <v>3944918</v>
       </c>
-      <c r="R37" s="10">
+      <c r="R37" s="9">
         <v>268424082</v>
       </c>
       <c r="S37" t="s">
         <v>5</v>
       </c>
-      <c r="V37" s="10">
+      <c r="V37" s="9">
         <v>98977343</v>
       </c>
       <c r="W37" t="s">
@@ -4689,8 +10128,44 @@
       <c r="AI37" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AO37" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP37" s="9">
+        <v>91384491883</v>
+      </c>
+      <c r="AQ37" s="9">
+        <v>80172267</v>
+      </c>
+      <c r="AR37" s="9">
+        <v>71772629</v>
+      </c>
+      <c r="AS37" s="9">
+        <v>56565317064</v>
+      </c>
+      <c r="AT37" s="9">
+        <v>44789627319</v>
+      </c>
+      <c r="BC37" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD37" s="9">
+        <v>2698348418455</v>
+      </c>
+      <c r="BE37" s="9">
+        <v>8149072308</v>
+      </c>
+      <c r="BF37" s="9">
+        <v>20642230</v>
+      </c>
+      <c r="BG37" s="9">
+        <v>2674641137718</v>
+      </c>
+      <c r="BH37" s="9">
+        <v>2525910806240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -4718,7 +10193,7 @@
       <c r="I38" s="7">
         <v>292</v>
       </c>
-      <c r="R38" s="10">
+      <c r="R38" s="9">
         <v>243361994</v>
       </c>
       <c r="S38" t="s">
@@ -4727,7 +10202,7 @@
       <c r="T38">
         <v>44.434377859752225</v>
       </c>
-      <c r="V38" s="10">
+      <c r="V38" s="9">
         <v>89435389</v>
       </c>
       <c r="W38" t="s">
@@ -4739,23 +10214,41 @@
       <c r="AD38" t="s">
         <v>90</v>
       </c>
-      <c r="AE38" s="10">
+      <c r="AE38" s="9">
         <v>2202585599063</v>
       </c>
-      <c r="AF38" s="10">
+      <c r="AF38" s="9">
         <v>632178469</v>
       </c>
-      <c r="AG38" s="10">
+      <c r="AG38" s="9">
         <v>292219852</v>
       </c>
-      <c r="AH38" s="10">
+      <c r="AH38" s="9">
         <v>2089119750384</v>
       </c>
-      <c r="AI38" s="10">
+      <c r="AI38" s="9">
         <v>1419933816951</v>
       </c>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AO38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP38" s="9">
+        <v>2262462194160</v>
+      </c>
+      <c r="AQ38" s="9">
+        <v>633975101</v>
+      </c>
+      <c r="AR38" s="9">
+        <v>278339181</v>
+      </c>
+      <c r="AS38" s="9">
+        <v>1876667418239</v>
+      </c>
+      <c r="AT38" s="9">
+        <v>935135342343</v>
+      </c>
+    </row>
+    <row r="39" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -4767,13 +10260,13 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-      <c r="R39" s="10">
+      <c r="R39" s="9">
         <v>6904877989</v>
       </c>
       <c r="S39" t="s">
         <v>7</v>
       </c>
-      <c r="V39" s="10">
+      <c r="V39" s="9">
         <v>17129009371</v>
       </c>
       <c r="W39" t="s">
@@ -4782,23 +10275,41 @@
       <c r="AD39" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AE39" s="10">
+      <c r="AE39" s="9">
         <v>91384491883</v>
       </c>
-      <c r="AF39" s="10">
+      <c r="AF39" s="9">
         <v>80172267</v>
       </c>
-      <c r="AG39" s="10">
+      <c r="AG39" s="9">
         <v>71772629</v>
       </c>
-      <c r="AH39" s="10">
+      <c r="AH39" s="9">
         <v>56565317064</v>
       </c>
-      <c r="AI39" s="10">
+      <c r="AI39" s="9">
         <v>44789627319</v>
       </c>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AO39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP39" s="9">
+        <v>2264245375365</v>
+      </c>
+      <c r="AQ39" s="9">
+        <v>509254180</v>
+      </c>
+      <c r="AR39" s="9">
+        <v>232237026</v>
+      </c>
+      <c r="AS39" s="9">
+        <v>2157473443512</v>
+      </c>
+      <c r="AT39" s="9">
+        <v>1960315419324</v>
+      </c>
+    </row>
+    <row r="40" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -4826,7 +10337,7 @@
       <c r="I40" s="6">
         <v>120227</v>
       </c>
-      <c r="R40" s="10">
+      <c r="R40" s="9">
         <v>21338098</v>
       </c>
       <c r="S40" t="s">
@@ -4835,7 +10346,7 @@
       <c r="T40">
         <v>8.4829484238065064E-2</v>
       </c>
-      <c r="V40" s="10">
+      <c r="V40" s="9">
         <v>4662643</v>
       </c>
       <c r="W40" t="s">
@@ -4847,23 +10358,23 @@
       <c r="AD40" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AE40" s="10">
+      <c r="AE40" s="9">
         <v>942322908666</v>
       </c>
-      <c r="AF40" s="10">
+      <c r="AF40" s="9">
         <v>699215767</v>
       </c>
-      <c r="AG40" s="10">
+      <c r="AG40" s="9">
         <v>468130514</v>
       </c>
-      <c r="AH40" s="10">
+      <c r="AH40" s="9">
         <v>887677025500</v>
       </c>
-      <c r="AI40" s="10">
+      <c r="AI40" s="9">
         <v>653202788644</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -4891,20 +10402,20 @@
       <c r="I41" s="6">
         <v>433174</v>
       </c>
-      <c r="R41" s="10">
+      <c r="R41" s="9">
         <v>170821202952</v>
       </c>
       <c r="S41" t="s">
         <v>9</v>
       </c>
-      <c r="V41" s="10">
+      <c r="V41" s="9">
         <v>7488196515</v>
       </c>
       <c r="W41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -4932,20 +10443,20 @@
       <c r="I42" s="6">
         <v>4259875</v>
       </c>
-      <c r="R42" s="10">
+      <c r="R42" s="9">
         <v>1291907.611644</v>
       </c>
       <c r="S42" t="s">
         <v>10</v>
       </c>
-      <c r="V42" s="10">
+      <c r="V42" s="9">
         <v>56936.811952999997</v>
       </c>
       <c r="W42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -4973,20 +10484,44 @@
       <c r="I43" s="6">
         <v>1004182</v>
       </c>
-      <c r="R43" s="10">
+      <c r="R43" s="9">
         <v>1291909.8097049999</v>
       </c>
       <c r="S43" t="s">
         <v>11</v>
       </c>
-      <c r="V43" s="10">
+      <c r="V43" s="9">
         <v>56938.008996999997</v>
       </c>
       <c r="W43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="CZ43">
+        <v>1</v>
+      </c>
+      <c r="DA43">
+        <v>2</v>
+      </c>
+      <c r="DB43">
+        <v>4</v>
+      </c>
+      <c r="DC43">
+        <v>8</v>
+      </c>
+      <c r="DD43">
+        <v>16</v>
+      </c>
+      <c r="DE43">
+        <v>32</v>
+      </c>
+      <c r="DF43">
+        <v>64</v>
+      </c>
+      <c r="DG43">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -5014,7 +10549,7 @@
       <c r="I44" s="6">
         <v>4508441</v>
       </c>
-      <c r="R44" s="10">
+      <c r="R44" s="9">
         <v>2660562193137</v>
       </c>
       <c r="S44" t="s">
@@ -5023,7 +10558,7 @@
       <c r="T44">
         <v>93.917109487672334</v>
       </c>
-      <c r="V44" s="10">
+      <c r="V44" s="9">
         <v>52205906918</v>
       </c>
       <c r="W44" t="s">
@@ -5032,8 +10567,35 @@
       <c r="X44">
         <v>93.917109487672334</v>
       </c>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="CY44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="CZ44" s="7">
+        <v>6154253</v>
+      </c>
+      <c r="DA44" s="7">
+        <v>5286149</v>
+      </c>
+      <c r="DB44" s="7">
+        <v>2291047</v>
+      </c>
+      <c r="DC44" s="7">
+        <v>1769882</v>
+      </c>
+      <c r="DD44" s="7">
+        <v>1635900</v>
+      </c>
+      <c r="DE44" s="7">
+        <v>1590309</v>
+      </c>
+      <c r="DF44" s="7">
+        <v>1661880</v>
+      </c>
+      <c r="DG44" s="7">
+        <v>1746792</v>
+      </c>
+    </row>
+    <row r="45" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -5061,7 +10623,7 @@
       <c r="I45" s="6">
         <v>1020</v>
       </c>
-      <c r="R45" s="10">
+      <c r="R45" s="9">
         <v>2593490453050</v>
       </c>
       <c r="S45" t="s">
@@ -5070,7 +10632,7 @@
       <c r="T45">
         <v>63.468447074869474</v>
       </c>
-      <c r="V45" s="10">
+      <c r="V45" s="9">
         <v>41937350076</v>
       </c>
       <c r="W45" t="s">
@@ -5079,8 +10641,35 @@
       <c r="X45">
         <v>63.468447074869474</v>
       </c>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="CY45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="CZ45" s="7">
+        <v>6335291</v>
+      </c>
+      <c r="DA45" s="7">
+        <v>10745239</v>
+      </c>
+      <c r="DB45" s="7">
+        <v>13155430</v>
+      </c>
+      <c r="DC45" s="7">
+        <v>13981627</v>
+      </c>
+      <c r="DD45" s="7">
+        <v>13997103</v>
+      </c>
+      <c r="DE45" s="7">
+        <v>14056761</v>
+      </c>
+      <c r="DF45" s="7">
+        <v>14156012</v>
+      </c>
+      <c r="DG45" s="7">
+        <v>14041670</v>
+      </c>
+    </row>
+    <row r="46" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -5108,8 +10697,35 @@
       <c r="I46">
         <v>126632</v>
       </c>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="CY46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CZ46" s="7">
+        <v>5881113</v>
+      </c>
+      <c r="DA46" s="7">
+        <v>12249391</v>
+      </c>
+      <c r="DB46" s="7">
+        <v>4500646</v>
+      </c>
+      <c r="DC46" s="7">
+        <v>6073699</v>
+      </c>
+      <c r="DD46" s="7">
+        <v>7386308</v>
+      </c>
+      <c r="DE46" s="7">
+        <v>4803010</v>
+      </c>
+      <c r="DF46" s="7">
+        <v>7833287</v>
+      </c>
+      <c r="DG46" s="7">
+        <v>7659168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:111" x14ac:dyDescent="0.25">
       <c r="R47" t="s">
         <v>94</v>
       </c>
@@ -5126,54 +10742,54 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:111" x14ac:dyDescent="0.25">
       <c r="Q48" t="s">
         <v>90</v>
       </c>
-      <c r="R48" s="10">
+      <c r="R48" s="9">
         <v>2202585599063</v>
       </c>
-      <c r="S48" s="10">
+      <c r="S48" s="9">
         <v>632178469</v>
       </c>
-      <c r="T48" s="10">
+      <c r="T48" s="9">
         <v>292219852</v>
       </c>
-      <c r="U48" s="10">
+      <c r="U48" s="9">
         <v>2089119750384</v>
       </c>
-      <c r="V48" s="10">
+      <c r="V48" s="9">
         <v>1419933816951</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
       <c r="Q49" t="s">
         <v>91</v>
       </c>
-      <c r="R49" s="10">
+      <c r="R49" s="9">
         <v>85860186583</v>
       </c>
-      <c r="S49" s="10">
+      <c r="S49" s="9">
         <v>91456490</v>
       </c>
-      <c r="T49" s="10">
+      <c r="T49" s="9">
         <v>83326066</v>
       </c>
-      <c r="U49" s="10">
+      <c r="U49" s="9">
         <v>51308018271</v>
       </c>
-      <c r="V49" s="10">
+      <c r="V49" s="9">
         <v>41527600786</v>
       </c>
     </row>
@@ -5205,19 +10821,19 @@
       <c r="Q50" t="s">
         <v>92</v>
       </c>
-      <c r="R50" s="10">
+      <c r="R50" s="9">
         <v>87830712750</v>
       </c>
-      <c r="S50" s="10">
+      <c r="S50" s="9">
         <v>98977343</v>
       </c>
-      <c r="T50" s="10">
+      <c r="T50" s="9">
         <v>89435389</v>
       </c>
-      <c r="U50" s="10">
+      <c r="U50" s="9">
         <v>52205906918</v>
       </c>
-      <c r="V50" s="10">
+      <c r="V50" s="9">
         <v>41937350076</v>
       </c>
     </row>
@@ -5252,19 +10868,19 @@
       <c r="Q51" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="R51" s="10">
+      <c r="R51" s="9">
         <v>91384491883</v>
       </c>
-      <c r="S51" s="10">
+      <c r="S51" s="9">
         <v>80172267</v>
       </c>
-      <c r="T51" s="10">
+      <c r="T51" s="9">
         <v>71772629</v>
       </c>
-      <c r="U51" s="10">
+      <c r="U51" s="9">
         <v>56565317064</v>
       </c>
-      <c r="V51" s="10">
+      <c r="V51" s="9">
         <v>44789627319</v>
       </c>
     </row>
@@ -5338,17 +10954,17 @@
       <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B58">
@@ -5485,17 +11101,17 @@
       <c r="O64" s="2"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
       <c r="L65" s="1"/>
       <c r="O65" s="2"/>
     </row>

--- a/Data Structures/linked_list/Singly Linked Buffer/MPMC_ALT.xlsx
+++ b/Data Structures/linked_list/Singly Linked Buffer/MPMC_ALT.xlsx
@@ -382,8 +382,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#.##,,,\ &quot;B&quot;"/>
+    <numFmt numFmtId="165" formatCode="#.##,,\ &quot;M&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -422,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -439,6 +441,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1500,11 +1504,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100807040"/>
-        <c:axId val="100808960"/>
+        <c:axId val="41238912"/>
+        <c:axId val="41240832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100807040"/>
+        <c:axId val="41238912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,7 +1537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100808960"/>
+        <c:crossAx val="41240832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1541,7 +1545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100808960"/>
+        <c:axId val="41240832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,7 +1575,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100807040"/>
+        <c:crossAx val="41238912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1901,11 +1905,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91395584"/>
-        <c:axId val="91399680"/>
+        <c:axId val="41605760"/>
+        <c:axId val="41489152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91395584"/>
+        <c:axId val="41605760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,7 +1938,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91399680"/>
+        <c:crossAx val="41489152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1942,7 +1946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91399680"/>
+        <c:axId val="41489152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1960,7 +1964,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1972,9 +1976,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91395584"/>
+        <c:crossAx val="41605760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2302,11 +2309,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118886784"/>
-        <c:axId val="118889472"/>
+        <c:axId val="41515648"/>
+        <c:axId val="41526016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118886784"/>
+        <c:axId val="41515648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2335,7 +2342,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118889472"/>
+        <c:crossAx val="41526016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2343,7 +2350,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118889472"/>
+        <c:axId val="41526016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2361,7 +2368,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2373,9 +2380,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118886784"/>
+        <c:crossAx val="41515648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2703,11 +2713,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="46172800"/>
-        <c:axId val="60106624"/>
+        <c:axId val="41630336"/>
+        <c:axId val="41644800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46172800"/>
+        <c:axId val="41630336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2736,7 +2746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60106624"/>
+        <c:crossAx val="41644800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2744,7 +2754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60106624"/>
+        <c:axId val="41644800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2762,7 +2772,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2774,9 +2784,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46172800"/>
+        <c:crossAx val="41630336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3022,11 +3035,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100830592"/>
-        <c:axId val="100849152"/>
+        <c:axId val="41254272"/>
+        <c:axId val="41276928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100830592"/>
+        <c:axId val="41254272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3055,7 +3068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100849152"/>
+        <c:crossAx val="41276928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3063,7 +3076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100849152"/>
+        <c:axId val="41276928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3093,7 +3106,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100830592"/>
+        <c:crossAx val="41254272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3505,11 +3518,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100885248"/>
-        <c:axId val="100887168"/>
+        <c:axId val="41313024"/>
+        <c:axId val="41314944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100885248"/>
+        <c:axId val="41313024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3538,7 +3551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100887168"/>
+        <c:crossAx val="41314944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3546,7 +3559,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100887168"/>
+        <c:axId val="41314944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3564,7 +3577,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3576,9 +3589,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100885248"/>
+        <c:crossAx val="41313024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3631,7 +3647,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Stoker; Best Performing Locks;</a:t>
+              <a:t>Stoker; Pthread Mutex &amp; Test-and-test-and-set Locks vs Lockless;</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -3906,11 +3922,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100913920"/>
-        <c:axId val="100915840"/>
+        <c:axId val="41812736"/>
+        <c:axId val="41814656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100913920"/>
+        <c:axId val="41812736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3939,7 +3955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100915840"/>
+        <c:crossAx val="41814656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3947,7 +3963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100915840"/>
+        <c:axId val="41814656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3965,7 +3981,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3977,9 +3993,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100913920"/>
+        <c:crossAx val="41812736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4315,11 +4334,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107251968"/>
-        <c:axId val="107254144"/>
+        <c:axId val="41849600"/>
+        <c:axId val="41851520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107251968"/>
+        <c:axId val="41849600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4348,7 +4367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107254144"/>
+        <c:crossAx val="41851520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4356,7 +4375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107254144"/>
+        <c:axId val="41851520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4374,7 +4393,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4386,9 +4405,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107251968"/>
+        <c:crossAx val="41849600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4724,11 +4746,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107301504"/>
-        <c:axId val="107311872"/>
+        <c:axId val="41962112"/>
+        <c:axId val="41972480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107301504"/>
+        <c:axId val="41962112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4757,7 +4779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107311872"/>
+        <c:crossAx val="41972480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4765,7 +4787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107311872"/>
+        <c:axId val="41972480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4783,7 +4805,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4795,9 +4817,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107301504"/>
+        <c:crossAx val="41962112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5133,11 +5158,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107340544"/>
-        <c:axId val="107342464"/>
+        <c:axId val="41997056"/>
+        <c:axId val="41998976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107340544"/>
+        <c:axId val="41997056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5166,7 +5191,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107342464"/>
+        <c:crossAx val="41998976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5174,7 +5199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107342464"/>
+        <c:axId val="41998976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5192,7 +5217,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5204,9 +5229,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107340544"/>
+        <c:crossAx val="41997056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5460,11 +5488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107393024"/>
-        <c:axId val="107394944"/>
+        <c:axId val="41922560"/>
+        <c:axId val="41924480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107393024"/>
+        <c:axId val="41922560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5493,7 +5521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107394944"/>
+        <c:crossAx val="41924480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5501,7 +5529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107394944"/>
+        <c:axId val="41924480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5519,7 +5547,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5531,9 +5559,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107393024"/>
+        <c:crossAx val="41922560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5779,11 +5810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107477248"/>
-        <c:axId val="107726336"/>
+        <c:axId val="41560704"/>
+        <c:axId val="41566976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107477248"/>
+        <c:axId val="41560704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5812,7 +5843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107726336"/>
+        <c:crossAx val="41566976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5820,7 +5851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107726336"/>
+        <c:axId val="41566976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5850,7 +5881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107477248"/>
+        <c:crossAx val="41560704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6548,8 +6579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:DG409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CJ28" workbookViewId="0">
-      <selection activeCell="CW61" sqref="CW61"/>
+    <sheetView tabSelected="1" topLeftCell="CJ31" workbookViewId="0">
+      <selection activeCell="CU52" sqref="CU52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9796,49 +9827,49 @@
       <c r="BO34" t="s">
         <v>91</v>
       </c>
-      <c r="BP34" s="9">
+      <c r="BP34" s="12">
         <v>84667413788</v>
       </c>
-      <c r="BQ34" s="9">
+      <c r="BQ34" s="13">
         <v>98813657</v>
       </c>
-      <c r="BR34" s="9">
+      <c r="BR34" s="13">
         <v>88835912</v>
       </c>
-      <c r="BS34" s="9">
+      <c r="BS34" s="12">
         <v>16978737207</v>
       </c>
-      <c r="BT34" s="9">
+      <c r="BT34" s="13">
         <v>5199655</v>
       </c>
-      <c r="BU34" s="9">
+      <c r="BU34" s="12">
         <v>49895584597</v>
       </c>
-      <c r="BV34" s="9">
+      <c r="BV34" s="12">
         <v>40444387340</v>
       </c>
       <c r="CB34" t="s">
         <v>111</v>
       </c>
-      <c r="CC34" s="9">
+      <c r="CC34" s="12">
         <v>15643624424</v>
       </c>
-      <c r="CD34" s="9">
+      <c r="CD34" s="13">
         <v>30918779</v>
       </c>
-      <c r="CE34" s="9">
+      <c r="CE34" s="13">
         <v>25198381</v>
       </c>
-      <c r="CF34" s="9">
+      <c r="CF34" s="12">
         <v>3661923334</v>
       </c>
-      <c r="CG34" s="9">
+      <c r="CG34" s="13">
         <v>2147553</v>
       </c>
-      <c r="CH34" s="9">
+      <c r="CH34" s="12">
         <v>8516720053</v>
       </c>
-      <c r="CI34" s="9">
+      <c r="CI34" s="12">
         <v>7092305021</v>
       </c>
       <c r="CO34" s="9">
@@ -9901,67 +9932,67 @@
       <c r="BC35" t="s">
         <v>92</v>
       </c>
-      <c r="BD35" s="9">
+      <c r="BD35" s="12">
         <v>88527859808</v>
       </c>
-      <c r="BE35" s="9">
+      <c r="BE35" s="12">
         <v>16576126691</v>
       </c>
-      <c r="BF35" s="9">
+      <c r="BF35" s="13">
         <v>11410747</v>
       </c>
-      <c r="BG35" s="9">
+      <c r="BG35" s="12">
         <v>53679088063</v>
       </c>
-      <c r="BH35" s="9">
+      <c r="BH35" s="12">
         <v>43919957008</v>
       </c>
       <c r="BO35" t="s">
         <v>109</v>
       </c>
-      <c r="BP35" s="9">
+      <c r="BP35" s="12">
         <v>2288580174358</v>
       </c>
-      <c r="BQ35" s="9">
+      <c r="BQ35" s="13">
         <v>706779824</v>
       </c>
-      <c r="BR35" s="9">
+      <c r="BR35" s="13">
         <v>456881599</v>
       </c>
-      <c r="BS35" s="9">
+      <c r="BS35" s="12">
         <v>73210572178</v>
       </c>
-      <c r="BT35" s="9">
+      <c r="BT35" s="13">
         <v>85366208</v>
       </c>
-      <c r="BU35" s="9">
+      <c r="BU35" s="12">
         <v>2172822987115</v>
       </c>
-      <c r="BV35" s="9">
+      <c r="BV35" s="12">
         <v>1762616320835</v>
       </c>
       <c r="CB35" t="s">
         <v>112</v>
       </c>
-      <c r="CC35" s="9">
+      <c r="CC35" s="12">
         <v>2280461968782</v>
       </c>
-      <c r="CD35" s="9">
+      <c r="CD35" s="13">
         <v>218895429</v>
       </c>
-      <c r="CE35" s="9">
+      <c r="CE35" s="13">
         <v>115931270</v>
       </c>
-      <c r="CF35" s="9">
+      <c r="CF35" s="12">
         <v>157707286313</v>
       </c>
-      <c r="CG35" s="9">
+      <c r="CG35" s="13">
         <v>19138851</v>
       </c>
-      <c r="CH35" s="9">
+      <c r="CH35" s="12">
         <v>1889729762635</v>
       </c>
-      <c r="CI35" s="9">
+      <c r="CI35" s="12">
         <v>1404302569452</v>
       </c>
       <c r="CO35" s="9">
@@ -10033,43 +10064,43 @@
       <c r="BC36" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="BD36" s="9">
+      <c r="BD36" s="12">
         <v>2630482716364</v>
       </c>
-      <c r="BE36" s="9">
+      <c r="BE36" s="12">
         <v>6608542881</v>
       </c>
-      <c r="BF36" s="9">
+      <c r="BF36" s="13">
         <v>20437689</v>
       </c>
-      <c r="BG36" s="9">
+      <c r="BG36" s="12">
         <v>2616283451300</v>
       </c>
-      <c r="BH36" s="9">
+      <c r="BH36" s="12">
         <v>2550951625797</v>
       </c>
       <c r="BO36" t="s">
         <v>110</v>
       </c>
-      <c r="BP36" s="9">
+      <c r="BP36" s="12">
         <v>2283020108829</v>
       </c>
-      <c r="BQ36" s="9">
+      <c r="BQ36" s="13">
         <v>723277345</v>
       </c>
-      <c r="BR36" s="9">
+      <c r="BR36" s="13">
         <v>470274664</v>
       </c>
-      <c r="BS36" s="9">
+      <c r="BS36" s="12">
         <v>57792484712</v>
       </c>
-      <c r="BT36" s="9">
+      <c r="BT36" s="13">
         <v>82224146</v>
       </c>
-      <c r="BU36" s="9">
+      <c r="BU36" s="12">
         <v>2188948555481</v>
       </c>
-      <c r="BV36" s="9">
+      <c r="BV36" s="12">
         <v>1820836215277</v>
       </c>
     </row>
@@ -10131,37 +10162,37 @@
       <c r="AO37" t="s">
         <v>93</v>
       </c>
-      <c r="AP37" s="9">
+      <c r="AP37" s="12">
         <v>91384491883</v>
       </c>
-      <c r="AQ37" s="9">
+      <c r="AQ37" s="13">
         <v>80172267</v>
       </c>
-      <c r="AR37" s="9">
+      <c r="AR37" s="13">
         <v>71772629</v>
       </c>
-      <c r="AS37" s="9">
+      <c r="AS37" s="12">
         <v>56565317064</v>
       </c>
-      <c r="AT37" s="9">
+      <c r="AT37" s="12">
         <v>44789627319</v>
       </c>
       <c r="BC37" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BD37" s="9">
+      <c r="BD37" s="12">
         <v>2698348418455</v>
       </c>
-      <c r="BE37" s="9">
+      <c r="BE37" s="12">
         <v>8149072308</v>
       </c>
-      <c r="BF37" s="9">
+      <c r="BF37" s="13">
         <v>20642230</v>
       </c>
-      <c r="BG37" s="9">
+      <c r="BG37" s="12">
         <v>2674641137718</v>
       </c>
-      <c r="BH37" s="9">
+      <c r="BH37" s="12">
         <v>2525910806240</v>
       </c>
     </row>
@@ -10214,37 +10245,37 @@
       <c r="AD38" t="s">
         <v>90</v>
       </c>
-      <c r="AE38" s="9">
+      <c r="AE38" s="12">
         <v>2202585599063</v>
       </c>
-      <c r="AF38" s="9">
+      <c r="AF38" s="13">
         <v>632178469</v>
       </c>
-      <c r="AG38" s="9">
+      <c r="AG38" s="13">
         <v>292219852</v>
       </c>
-      <c r="AH38" s="9">
+      <c r="AH38" s="12">
         <v>2089119750384</v>
       </c>
-      <c r="AI38" s="9">
+      <c r="AI38" s="12">
         <v>1419933816951</v>
       </c>
       <c r="AO38" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AP38" s="9">
+      <c r="AP38" s="12">
         <v>2262462194160</v>
       </c>
-      <c r="AQ38" s="9">
+      <c r="AQ38" s="13">
         <v>633975101</v>
       </c>
-      <c r="AR38" s="9">
+      <c r="AR38" s="13">
         <v>278339181</v>
       </c>
-      <c r="AS38" s="9">
+      <c r="AS38" s="12">
         <v>1876667418239</v>
       </c>
-      <c r="AT38" s="9">
+      <c r="AT38" s="12">
         <v>935135342343</v>
       </c>
     </row>
@@ -10275,37 +10306,37 @@
       <c r="AD39" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AE39" s="9">
+      <c r="AE39" s="12">
         <v>91384491883</v>
       </c>
-      <c r="AF39" s="9">
+      <c r="AF39" s="13">
         <v>80172267</v>
       </c>
-      <c r="AG39" s="9">
+      <c r="AG39" s="13">
         <v>71772629</v>
       </c>
-      <c r="AH39" s="9">
+      <c r="AH39" s="12">
         <v>56565317064</v>
       </c>
-      <c r="AI39" s="9">
+      <c r="AI39" s="12">
         <v>44789627319</v>
       </c>
       <c r="AO39" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AP39" s="9">
+      <c r="AP39" s="12">
         <v>2264245375365</v>
       </c>
-      <c r="AQ39" s="9">
+      <c r="AQ39" s="13">
         <v>509254180</v>
       </c>
-      <c r="AR39" s="9">
+      <c r="AR39" s="13">
         <v>232237026</v>
       </c>
-      <c r="AS39" s="9">
+      <c r="AS39" s="12">
         <v>2157473443512</v>
       </c>
-      <c r="AT39" s="9">
+      <c r="AT39" s="12">
         <v>1960315419324</v>
       </c>
     </row>
@@ -10358,19 +10389,19 @@
       <c r="AD40" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AE40" s="9">
+      <c r="AE40" s="12">
         <v>942322908666</v>
       </c>
-      <c r="AF40" s="9">
+      <c r="AF40" s="13">
         <v>699215767</v>
       </c>
-      <c r="AG40" s="9">
+      <c r="AG40" s="13">
         <v>468130514</v>
       </c>
-      <c r="AH40" s="9">
+      <c r="AH40" s="12">
         <v>887677025500</v>
       </c>
-      <c r="AI40" s="9">
+      <c r="AI40" s="12">
         <v>653202788644</v>
       </c>
     </row>
@@ -10746,19 +10777,19 @@
       <c r="Q48" t="s">
         <v>90</v>
       </c>
-      <c r="R48" s="9">
+      <c r="R48" s="12">
         <v>2202585599063</v>
       </c>
-      <c r="S48" s="9">
+      <c r="S48" s="13">
         <v>632178469</v>
       </c>
-      <c r="T48" s="9">
+      <c r="T48" s="13">
         <v>292219852</v>
       </c>
-      <c r="U48" s="9">
+      <c r="U48" s="12">
         <v>2089119750384</v>
       </c>
-      <c r="V48" s="9">
+      <c r="V48" s="12">
         <v>1419933816951</v>
       </c>
     </row>
@@ -10777,19 +10808,19 @@
       <c r="Q49" t="s">
         <v>91</v>
       </c>
-      <c r="R49" s="9">
+      <c r="R49" s="12">
         <v>85860186583</v>
       </c>
-      <c r="S49" s="9">
+      <c r="S49" s="13">
         <v>91456490</v>
       </c>
-      <c r="T49" s="9">
+      <c r="T49" s="13">
         <v>83326066</v>
       </c>
-      <c r="U49" s="9">
+      <c r="U49" s="12">
         <v>51308018271</v>
       </c>
-      <c r="V49" s="9">
+      <c r="V49" s="12">
         <v>41527600786</v>
       </c>
     </row>
@@ -10821,19 +10852,19 @@
       <c r="Q50" t="s">
         <v>92</v>
       </c>
-      <c r="R50" s="9">
+      <c r="R50" s="12">
         <v>87830712750</v>
       </c>
-      <c r="S50" s="9">
+      <c r="S50" s="13">
         <v>98977343</v>
       </c>
-      <c r="T50" s="9">
+      <c r="T50" s="13">
         <v>89435389</v>
       </c>
-      <c r="U50" s="9">
+      <c r="U50" s="12">
         <v>52205906918</v>
       </c>
-      <c r="V50" s="9">
+      <c r="V50" s="12">
         <v>41937350076</v>
       </c>
     </row>
@@ -10868,19 +10899,19 @@
       <c r="Q51" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="R51" s="9">
+      <c r="R51" s="12">
         <v>91384491883</v>
       </c>
-      <c r="S51" s="9">
+      <c r="S51" s="13">
         <v>80172267</v>
       </c>
-      <c r="T51" s="9">
+      <c r="T51" s="13">
         <v>71772629</v>
       </c>
-      <c r="U51" s="9">
+      <c r="U51" s="12">
         <v>56565317064</v>
       </c>
-      <c r="V51" s="9">
+      <c r="V51" s="12">
         <v>44789627319</v>
       </c>
     </row>
